--- a/lists/learn_list_study4_base.xlsx
+++ b/lists/learn_list_study4_base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gelliott/Documents/projects/delaylearn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gelliott/Documents/projects/delaylearn/feedback-delay-four/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CAEC6E-DF1C-D34D-B66D-756BF59B5A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB773C1-53DA-B840-9610-43BB38DFE203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="4060" windowWidth="43380" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="1240" windowWidth="43380" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_study4_try_counter1" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="60">
   <si>
     <t>pattern_stimuli</t>
   </si>
@@ -1108,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E25E4B-9AFA-2443-8C1F-D7B80241CF51}">
-  <dimension ref="A1:AB109"/>
+  <dimension ref="A1:AC109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1122,11 +1122,11 @@
     <col min="6" max="19" width="14.83203125" customWidth="1"/>
     <col min="20" max="20" width="34.6640625" customWidth="1"/>
     <col min="21" max="21" width="46.83203125" customWidth="1"/>
-    <col min="22" max="25" width="14.83203125" customWidth="1"/>
-    <col min="28" max="28" width="14.83203125" customWidth="1"/>
+    <col min="22" max="26" width="14.83203125" customWidth="1"/>
+    <col min="29" max="29" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1203,16 +1203,19 @@
         <v>37</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1223,19 +1226,19 @@
         <v>7</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(L2=0,T2,U2)</f>
+        <f t="shared" ref="D2:D33" si="0">IF(L2=0,T2,U2)</f>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(L2=0,U2,T2)</f>
+        <f t="shared" ref="E2:E33" si="1">IF(L2=0,U2,T2)</f>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F2" t="str">
-        <f>IF(AND(L2=0),"f",IF(AND(L2=1),"j",IF(AND(L2=0),"j","f")))</f>
+        <f t="shared" ref="F2:F33" si="2">IF(AND(L2=0),"f",IF(AND(L2=1),"j",IF(AND(L2=0),"j","f")))</f>
         <v>f</v>
       </c>
       <c r="G2" t="str">
-        <f>IF(AND(V2=1,L2=0),"f",IF(AND(V2=1,L2=1),"j",IF(AND(V2=0,L2=0),"j","f")))</f>
+        <f t="shared" ref="G2:G33" si="3">IF(AND(V2=1,L2=0),"f",IF(AND(V2=1,L2=1),"j",IF(AND(V2=0,L2=0),"j","f")))</f>
         <v>f</v>
       </c>
       <c r="H2">
@@ -1269,19 +1272,19 @@
         <v>6</v>
       </c>
       <c r="R2">
-        <f>IF(L2=0,P2,Q2)</f>
+        <f t="shared" ref="R2:R33" si="4">IF(L2=0,P2,Q2)</f>
         <v>5</v>
       </c>
       <c r="S2">
-        <f>IF(L2=0,Q2,P2)</f>
+        <f t="shared" ref="S2:S33" si="5">IF(L2=0,Q2,P2)</f>
         <v>6</v>
       </c>
       <c r="T2" t="str">
-        <f>CONCATENATE("images/choice_trial_",P2,".png")</f>
+        <f t="shared" ref="T2:T33" si="6">CONCATENATE("images/choice_trial_",P2,".png")</f>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U2" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q2,".png")</f>
+        <f t="shared" ref="U2:U33" si="7">CONCATENATE("images/choice_trial_",Q2,".png")</f>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V2" s="6">
@@ -1291,23 +1294,23 @@
         <v>8</v>
       </c>
       <c r="X2" t="str">
-        <f>IF(V2=1,"f","j")</f>
+        <f t="shared" ref="X2:X33" si="8">IF(V2=1,"f","j")</f>
         <v>f</v>
       </c>
       <c r="Y2">
         <v>1</v>
       </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
         <v>51</v>
       </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1318,19 +1321,19 @@
         <v>10</v>
       </c>
       <c r="D3" t="str">
-        <f>IF(L3=0,T3,U3)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(L3=0,U3,T3)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F3" t="str">
-        <f>IF(AND(L3=0),"f",IF(AND(L3=1),"j",IF(AND(L3=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G3" t="str">
-        <f>IF(AND(V3=1,L3=0),"f",IF(AND(V3=1,L3=1),"j",IF(AND(V3=0,L3=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H3">
@@ -1364,19 +1367,19 @@
         <v>14</v>
       </c>
       <c r="R3">
-        <f>IF(L3=0,P3,Q3)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="S3">
-        <f>IF(L3=0,Q3,P3)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="T3" t="str">
-        <f>CONCATENATE("images/choice_trial_",P3,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U3" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q3,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V3">
@@ -1386,23 +1389,23 @@
         <v>8</v>
       </c>
       <c r="X3" t="str">
-        <f>IF(V3=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
         <v>51</v>
       </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1413,19 +1416,19 @@
         <v>20</v>
       </c>
       <c r="D4" t="str">
-        <f>IF(L4=0,T4,U4)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E4" t="str">
-        <f>IF(L4=0,U4,T4)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F4" t="str">
-        <f>IF(AND(L4=0),"f",IF(AND(L4=1),"j",IF(AND(L4=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G4" t="str">
-        <f>IF(AND(V4=1,L4=0),"f",IF(AND(V4=1,L4=1),"j",IF(AND(V4=0,L4=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H4">
@@ -1459,19 +1462,19 @@
         <v>8</v>
       </c>
       <c r="R4">
-        <f>IF(L4=0,P4,Q4)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="S4">
-        <f>IF(L4=0,Q4,P4)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="T4" t="str">
-        <f>CONCATENATE("images/choice_trial_",P4,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U4" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q4,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V4" s="6">
@@ -1481,24 +1484,24 @@
         <v>8</v>
       </c>
       <c r="X4" t="str">
-        <f>IF(V4=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y4">
         <v>1</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2</v>
       </c>
-      <c r="AA4" t="e">
+      <c r="AB4" t="e">
         <f>IF(N4=N2,"REP2",IF(N4=#REF!,"REP3","."))</f>
         <v>#REF!</v>
       </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1509,19 +1512,19 @@
         <v>12</v>
       </c>
       <c r="D5" t="str">
-        <f>IF(L5=0,T5,U5)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(L5=0,U5,T5)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F5" t="str">
-        <f>IF(AND(L5=0),"f",IF(AND(L5=1),"j",IF(AND(L5=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G5" t="str">
-        <f>IF(AND(V5=1,L5=0),"f",IF(AND(V5=1,L5=1),"j",IF(AND(V5=0,L5=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H5">
@@ -1555,19 +1558,19 @@
         <v>10</v>
       </c>
       <c r="R5">
-        <f>IF(L5=0,P5,Q5)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="S5">
-        <f>IF(L5=0,Q5,P5)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="T5" t="str">
-        <f>CONCATENATE("images/choice_trial_",P5,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U5" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q5,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V5">
@@ -1577,24 +1580,24 @@
         <v>8</v>
       </c>
       <c r="X5" t="str">
-        <f>IF(V5=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>2</v>
       </c>
-      <c r="AA5" t="str">
+      <c r="AB5" t="str">
         <f>IF(N5=N3,"REP2",IF(N5=N2,"REP3","."))</f>
         <v>.</v>
       </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1605,19 +1608,19 @@
         <v>14</v>
       </c>
       <c r="D6" t="str">
-        <f>IF(L6=0,T6,U6)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E6" t="str">
-        <f>IF(L6=0,U6,T6)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="F6" t="str">
-        <f>IF(AND(L6=0),"f",IF(AND(L6=1),"j",IF(AND(L6=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G6" t="str">
-        <f>IF(AND(V6=1,L6=0),"f",IF(AND(V6=1,L6=1),"j",IF(AND(V6=0,L6=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H6">
@@ -1651,19 +1654,19 @@
         <v>12</v>
       </c>
       <c r="R6">
-        <f>IF(L6=0,P6,Q6)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="S6">
-        <f>IF(L6=0,Q6,P6)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="T6" t="str">
-        <f>CONCATENATE("images/choice_trial_",P6,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U6" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q6,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V6">
@@ -1673,24 +1676,24 @@
         <v>8</v>
       </c>
       <c r="X6" t="str">
-        <f>IF(V6=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>3</v>
       </c>
-      <c r="AA6" t="str">
+      <c r="AB6" t="str">
         <f>IF(N6=N4,"REP2",IF(N6=N3,"REP3","."))</f>
         <v>.</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1701,19 +1704,19 @@
         <v>22</v>
       </c>
       <c r="D7" t="str">
-        <f>IF(L7=0,T7,U7)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(L7=0,U7,T7)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="F7" t="str">
-        <f>IF(AND(L7=0),"f",IF(AND(L7=1),"j",IF(AND(L7=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G7" t="str">
-        <f>IF(AND(V7=1,L7=0),"f",IF(AND(V7=1,L7=1),"j",IF(AND(V7=0,L7=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H7">
@@ -1747,19 +1750,19 @@
         <v>2</v>
       </c>
       <c r="R7">
-        <f>IF(L7=0,P7,Q7)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S7">
-        <f>IF(L7=0,Q7,P7)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T7" t="str">
-        <f>CONCATENATE("images/choice_trial_",P7,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U7" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q7,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V7" s="6">
@@ -1769,24 +1772,24 @@
         <v>8</v>
       </c>
       <c r="X7" t="str">
-        <f>IF(V7=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y7">
         <v>1</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>3</v>
       </c>
-      <c r="AA7" t="e">
+      <c r="AB7" t="e">
         <f>IF(N7=#REF!,"REP2",IF(N7=#REF!,"REP3","."))</f>
         <v>#REF!</v>
       </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1797,19 +1800,19 @@
         <v>7</v>
       </c>
       <c r="D8" t="str">
-        <f>IF(L8=0,T8,U8)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(L8=0,U8,T8)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="F8" t="str">
-        <f>IF(AND(L8=0),"f",IF(AND(L8=1),"j",IF(AND(L8=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G8" t="str">
-        <f>IF(AND(V8=1,L8=0),"f",IF(AND(V8=1,L8=1),"j",IF(AND(V8=0,L8=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H8">
@@ -1843,19 +1846,19 @@
         <v>6</v>
       </c>
       <c r="R8">
-        <f>IF(L8=0,P8,Q8)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="S8">
-        <f>IF(L8=0,Q8,P8)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="T8" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",P8,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U8" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q8,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V8" s="12">
@@ -1865,24 +1868,24 @@
         <v>8</v>
       </c>
       <c r="X8" t="str">
-        <f>IF(V8=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y8">
         <v>1</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>4</v>
       </c>
-      <c r="AA8" t="str">
+      <c r="AB8" t="str">
         <f>IF(N8=N6,"REP2",IF(N8=N5,"REP3","."))</f>
         <v>.</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1893,19 +1896,19 @@
         <v>12</v>
       </c>
       <c r="D9" t="str">
-        <f>IF(L9=0,T9,U9)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(L9=0,U9,T9)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F9" t="str">
-        <f>IF(AND(L9=0),"f",IF(AND(L9=1),"j",IF(AND(L9=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G9" t="str">
-        <f>IF(AND(V9=1,L9=0),"f",IF(AND(V9=1,L9=1),"j",IF(AND(V9=0,L9=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H9">
@@ -1939,19 +1942,19 @@
         <v>10</v>
       </c>
       <c r="R9">
-        <f>IF(L9=0,P9,Q9)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="S9">
-        <f>IF(L9=0,Q9,P9)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="T9" t="str">
-        <f>CONCATENATE("images/choice_trial_",P9,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U9" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q9,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V9" s="8">
@@ -1961,24 +1964,24 @@
         <v>8</v>
       </c>
       <c r="X9" t="str">
-        <f>IF(V9=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>4</v>
       </c>
-      <c r="AA9" t="str">
+      <c r="AB9" t="str">
         <f>IF(N9=N7,"REP2",IF(N9=N6,"REP3","."))</f>
         <v>.</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1989,19 +1992,19 @@
         <v>14</v>
       </c>
       <c r="D10" t="str">
-        <f>IF(L10=0,T10,U10)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(L10=0,U10,T10)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="F10" t="str">
-        <f>IF(AND(L10=0),"f",IF(AND(L10=1),"j",IF(AND(L10=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G10" t="str">
-        <f>IF(AND(V10=1,L10=0),"f",IF(AND(V10=1,L10=1),"j",IF(AND(V10=0,L10=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H10">
@@ -2035,19 +2038,19 @@
         <v>12</v>
       </c>
       <c r="R10">
-        <f>IF(L10=0,P10,Q10)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="S10">
-        <f>IF(L10=0,Q10,P10)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="T10" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",P10,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U10" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q10,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V10" s="11">
@@ -2057,24 +2060,24 @@
         <v>8</v>
       </c>
       <c r="X10" t="str">
-        <f>IF(V10=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>5</v>
       </c>
-      <c r="AA10" t="str">
+      <c r="AB10" t="str">
         <f>IF(N10=N8,"REP2",IF(N10=N7,"REP3","."))</f>
         <v>.</v>
       </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2085,19 +2088,19 @@
         <v>20</v>
       </c>
       <c r="D11" t="str">
-        <f>IF(L11=0,T11,U11)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E11" t="str">
-        <f>IF(L11=0,U11,T11)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F11" t="str">
-        <f>IF(AND(L11=0),"f",IF(AND(L11=1),"j",IF(AND(L11=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G11" t="str">
-        <f>IF(AND(V11=1,L11=0),"f",IF(AND(V11=1,L11=1),"j",IF(AND(V11=0,L11=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H11">
@@ -2131,19 +2134,19 @@
         <v>8</v>
       </c>
       <c r="R11">
-        <f>IF(L11=0,P11,Q11)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S11">
-        <f>IF(L11=0,Q11,P11)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="T11" t="str">
-        <f>CONCATENATE("images/choice_trial_",P11,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U11" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q11,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V11" s="8">
@@ -2153,24 +2156,24 @@
         <v>8</v>
       </c>
       <c r="X11" t="str">
-        <f>IF(V11=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y11">
         <v>1</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>5</v>
       </c>
-      <c r="AA11" t="str">
+      <c r="AB11" t="str">
         <f>IF(N11=N9,"REP2",IF(N11=N8,"REP3","."))</f>
         <v>.</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2181,19 +2184,19 @@
         <v>10</v>
       </c>
       <c r="D12" t="str">
-        <f>IF(L12=0,T12,U12)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E12" t="str">
-        <f>IF(L12=0,U12,T12)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F12" t="str">
-        <f>IF(AND(L12=0),"f",IF(AND(L12=1),"j",IF(AND(L12=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G12" t="str">
-        <f>IF(AND(V12=1,L12=0),"f",IF(AND(V12=1,L12=1),"j",IF(AND(V12=0,L12=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H12">
@@ -2227,19 +2230,19 @@
         <v>14</v>
       </c>
       <c r="R12">
-        <f>IF(L12=0,P12,Q12)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="S12">
-        <f>IF(L12=0,Q12,P12)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="T12" t="str">
-        <f>CONCATENATE("images/choice_trial_",P12,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U12" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q12,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V12" s="8">
@@ -2249,24 +2252,24 @@
         <v>8</v>
       </c>
       <c r="X12" t="str">
-        <f>IF(V12=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>6</v>
       </c>
-      <c r="AA12" t="str">
+      <c r="AB12" t="str">
         <f>IF(N12=N10,"REP2",IF(N12=N9,"REP3","."))</f>
         <v>.</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2277,19 +2280,19 @@
         <v>22</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(L13=0,T13,U13)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="E13" t="str">
-        <f>IF(L13=0,U13,T13)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F13" t="str">
-        <f>IF(AND(L13=0),"f",IF(AND(L13=1),"j",IF(AND(L13=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G13" t="str">
-        <f>IF(AND(V13=1,L13=0),"f",IF(AND(V13=1,L13=1),"j",IF(AND(V13=0,L13=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H13">
@@ -2323,19 +2326,19 @@
         <v>2</v>
       </c>
       <c r="R13">
-        <f>IF(L13=0,P13,Q13)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S13">
-        <f>IF(L13=0,Q13,P13)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="T13" t="str">
-        <f>CONCATENATE("images/choice_trial_",P13,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U13" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q13,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V13" s="8">
@@ -2345,24 +2348,24 @@
         <v>8</v>
       </c>
       <c r="X13" t="str">
-        <f>IF(V13=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y13">
         <v>1</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>6</v>
       </c>
-      <c r="AA13" t="e">
+      <c r="AB13" t="e">
         <f>IF(N13=N11,"REP2",IF(N13=#REF!,"REP3","."))</f>
         <v>#REF!</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2373,19 +2376,19 @@
         <v>14</v>
       </c>
       <c r="D14" t="str">
-        <f>IF(L14=0,T14,U14)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(L14=0,U14,T14)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F14" t="str">
-        <f>IF(AND(L14=0),"f",IF(AND(L14=1),"j",IF(AND(L14=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G14" t="str">
-        <f>IF(AND(V14=1,L14=0),"f",IF(AND(V14=1,L14=1),"j",IF(AND(V14=0,L14=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H14">
@@ -2419,19 +2422,19 @@
         <v>12</v>
       </c>
       <c r="R14">
-        <f>IF(L14=0,P14,Q14)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="S14">
-        <f>IF(L14=0,Q14,P14)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="T14" t="str">
-        <f>CONCATENATE("images/choice_trial_",P14,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U14" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q14,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V14" s="8">
@@ -2441,24 +2444,24 @@
         <v>8</v>
       </c>
       <c r="X14" t="str">
-        <f>IF(V14=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>7</v>
       </c>
-      <c r="AA14" t="str">
-        <f>IF(N14=N12,"REP2",IF(N14=N11,"REP3","."))</f>
+      <c r="AB14" t="str">
+        <f t="shared" ref="AB14:AB45" si="9">IF(N14=N12,"REP2",IF(N14=N11,"REP3","."))</f>
         <v>.</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2469,19 +2472,19 @@
         <v>20</v>
       </c>
       <c r="D15" t="str">
-        <f>IF(L15=0,T15,U15)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(L15=0,U15,T15)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F15" t="str">
-        <f>IF(AND(L15=0),"f",IF(AND(L15=1),"j",IF(AND(L15=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G15" t="str">
-        <f>IF(AND(V15=1,L15=0),"f",IF(AND(V15=1,L15=1),"j",IF(AND(V15=0,L15=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H15">
@@ -2515,19 +2518,19 @@
         <v>8</v>
       </c>
       <c r="R15">
-        <f>IF(L15=0,P15,Q15)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="S15">
-        <f>IF(L15=0,Q15,P15)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="T15" t="str">
-        <f>CONCATENATE("images/choice_trial_",P15,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U15" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q15,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V15" s="8">
@@ -2537,24 +2540,24 @@
         <v>8</v>
       </c>
       <c r="X15" t="str">
-        <f>IF(V15=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y15">
         <v>1</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>7</v>
       </c>
-      <c r="AA15" t="str">
-        <f>IF(N15=N13,"REP2",IF(N15=N12,"REP3","."))</f>
+      <c r="AB15" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2565,19 +2568,19 @@
         <v>10</v>
       </c>
       <c r="D16" t="str">
-        <f>IF(L16=0,T16,U16)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(L16=0,U16,T16)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F16" t="str">
-        <f>IF(AND(L16=0),"f",IF(AND(L16=1),"j",IF(AND(L16=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G16" t="str">
-        <f>IF(AND(V16=1,L16=0),"f",IF(AND(V16=1,L16=1),"j",IF(AND(V16=0,L16=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H16">
@@ -2611,19 +2614,19 @@
         <v>14</v>
       </c>
       <c r="R16">
-        <f>IF(L16=0,P16,Q16)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="S16">
-        <f>IF(L16=0,Q16,P16)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="T16" t="str">
-        <f>CONCATENATE("images/choice_trial_",P16,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U16" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q16,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V16" s="8">
@@ -2633,24 +2636,24 @@
         <v>8</v>
       </c>
       <c r="X16" t="str">
-        <f>IF(V16=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
-      <c r="Z16">
-        <v>8</v>
-      </c>
-      <c r="AA16" t="str">
-        <f>IF(N16=N14,"REP2",IF(N16=N13,"REP3","."))</f>
+      <c r="AA16">
+        <v>8</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2661,19 +2664,19 @@
         <v>22</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(L17=0,T17,U17)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(L17=0,U17,T17)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="F17" t="str">
-        <f>IF(AND(L17=0),"f",IF(AND(L17=1),"j",IF(AND(L17=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G17" t="str">
-        <f>IF(AND(V17=1,L17=0),"f",IF(AND(V17=1,L17=1),"j",IF(AND(V17=0,L17=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H17">
@@ -2707,19 +2710,19 @@
         <v>2</v>
       </c>
       <c r="R17">
-        <f>IF(L17=0,P17,Q17)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S17">
-        <f>IF(L17=0,Q17,P17)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T17" t="str">
-        <f>CONCATENATE("images/choice_trial_",P17,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U17" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q17,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V17" s="9">
@@ -2729,24 +2732,24 @@
         <v>8</v>
       </c>
       <c r="X17" t="str">
-        <f>IF(V17=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y17">
         <v>1</v>
       </c>
-      <c r="Z17">
-        <v>8</v>
-      </c>
-      <c r="AA17" t="str">
-        <f>IF(N17=N15,"REP2",IF(N17=N14,"REP3","."))</f>
+      <c r="AA17">
+        <v>8</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2757,19 +2760,19 @@
         <v>7</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(L18=0,T18,U18)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E18" t="str">
-        <f>IF(L18=0,U18,T18)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="F18" t="str">
-        <f>IF(AND(L18=0),"f",IF(AND(L18=1),"j",IF(AND(L18=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G18" t="str">
-        <f>IF(AND(V18=1,L18=0),"f",IF(AND(V18=1,L18=1),"j",IF(AND(V18=0,L18=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H18">
@@ -2803,19 +2806,19 @@
         <v>6</v>
       </c>
       <c r="R18">
-        <f>IF(L18=0,P18,Q18)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="S18">
-        <f>IF(L18=0,Q18,P18)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="T18" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",P18,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U18" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q18,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V18" s="11">
@@ -2825,24 +2828,24 @@
         <v>8</v>
       </c>
       <c r="X18" t="str">
-        <f>IF(V18=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y18">
         <v>1</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>9</v>
       </c>
-      <c r="AA18" t="str">
-        <f>IF(N18=N16,"REP2",IF(N18=N15,"REP3","."))</f>
+      <c r="AB18" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2853,19 +2856,19 @@
         <v>12</v>
       </c>
       <c r="D19" t="str">
-        <f>IF(L19=0,T19,U19)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(L19=0,U19,T19)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F19" t="str">
-        <f>IF(AND(L19=0),"f",IF(AND(L19=1),"j",IF(AND(L19=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G19" t="str">
-        <f>IF(AND(V19=1,L19=0),"f",IF(AND(V19=1,L19=1),"j",IF(AND(V19=0,L19=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H19">
@@ -2899,19 +2902,19 @@
         <v>10</v>
       </c>
       <c r="R19">
-        <f>IF(L19=0,P19,Q19)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="S19">
-        <f>IF(L19=0,Q19,P19)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="T19" t="str">
-        <f>CONCATENATE("images/choice_trial_",P19,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U19" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q19,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V19" s="8">
@@ -2921,24 +2924,24 @@
         <v>8</v>
       </c>
       <c r="X19" t="str">
-        <f>IF(V19=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>9</v>
       </c>
-      <c r="AA19" t="str">
-        <f>IF(N19=N17,"REP2",IF(N19=N16,"REP3","."))</f>
+      <c r="AB19" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2949,19 +2952,19 @@
         <v>10</v>
       </c>
       <c r="D20" t="str">
-        <f>IF(L20=0,T20,U20)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(L20=0,U20,T20)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F20" t="str">
-        <f>IF(AND(L20=0),"f",IF(AND(L20=1),"j",IF(AND(L20=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G20" t="str">
-        <f>IF(AND(V20=1,L20=0),"f",IF(AND(V20=1,L20=1),"j",IF(AND(V20=0,L20=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H20">
@@ -2995,19 +2998,19 @@
         <v>14</v>
       </c>
       <c r="R20">
-        <f>IF(L20=0,P20,Q20)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="S20">
-        <f>IF(L20=0,Q20,P20)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="T20" t="str">
-        <f>CONCATENATE("images/choice_trial_",P20,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U20" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q20,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V20" s="10">
@@ -3017,24 +3020,24 @@
         <v>8</v>
       </c>
       <c r="X20" t="str">
-        <f>IF(V20=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>10</v>
       </c>
-      <c r="AA20" t="str">
-        <f>IF(N20=N18,"REP2",IF(N20=N17,"REP3","."))</f>
+      <c r="AB20" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3045,19 +3048,19 @@
         <v>22</v>
       </c>
       <c r="D21" t="str">
-        <f>IF(L21=0,T21,U21)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(L21=0,U21,T21)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F21" t="str">
-        <f>IF(AND(L21=0),"f",IF(AND(L21=1),"j",IF(AND(L21=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G21" t="str">
-        <f>IF(AND(V21=1,L21=0),"f",IF(AND(V21=1,L21=1),"j",IF(AND(V21=0,L21=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H21">
@@ -3091,19 +3094,19 @@
         <v>2</v>
       </c>
       <c r="R21">
-        <f>IF(L21=0,P21,Q21)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S21">
-        <f>IF(L21=0,Q21,P21)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="T21" t="str">
-        <f>CONCATENATE("images/choice_trial_",P21,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U21" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q21,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V21" s="8">
@@ -3113,24 +3116,24 @@
         <v>8</v>
       </c>
       <c r="X21" t="str">
-        <f>IF(V21=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y21">
         <v>1</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>10</v>
       </c>
-      <c r="AA21" t="str">
-        <f>IF(N21=N19,"REP2",IF(N21=N18,"REP3","."))</f>
+      <c r="AB21" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3141,19 +3144,19 @@
         <v>14</v>
       </c>
       <c r="D22" t="str">
-        <f>IF(L22=0,T22,U22)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="E22" t="str">
-        <f>IF(L22=0,U22,T22)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F22" t="str">
-        <f>IF(AND(L22=0),"f",IF(AND(L22=1),"j",IF(AND(L22=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G22" t="str">
-        <f>IF(AND(V22=1,L22=0),"f",IF(AND(V22=1,L22=1),"j",IF(AND(V22=0,L22=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H22">
@@ -3187,19 +3190,19 @@
         <v>12</v>
       </c>
       <c r="R22">
-        <f>IF(L22=0,P22,Q22)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="S22">
-        <f>IF(L22=0,Q22,P22)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="T22" t="str">
-        <f>CONCATENATE("images/choice_trial_",P22,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U22" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q22,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V22" s="8">
@@ -3209,24 +3212,24 @@
         <v>8</v>
       </c>
       <c r="X22" t="str">
-        <f>IF(V22=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>11</v>
       </c>
-      <c r="AA22" t="str">
-        <f>IF(N22=N20,"REP2",IF(N22=N19,"REP3","."))</f>
+      <c r="AB22" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3237,19 +3240,19 @@
         <v>12</v>
       </c>
       <c r="D23" t="str">
-        <f>IF(L23=0,T23,U23)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(L23=0,U23,T23)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F23" t="str">
-        <f>IF(AND(L23=0),"f",IF(AND(L23=1),"j",IF(AND(L23=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G23" t="str">
-        <f>IF(AND(V23=1,L23=0),"f",IF(AND(V23=1,L23=1),"j",IF(AND(V23=0,L23=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H23">
@@ -3283,19 +3286,19 @@
         <v>10</v>
       </c>
       <c r="R23">
-        <f>IF(L23=0,P23,Q23)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="S23">
-        <f>IF(L23=0,Q23,P23)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="T23" t="str">
-        <f>CONCATENATE("images/choice_trial_",P23,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U23" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q23,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V23" s="8">
@@ -3305,24 +3308,24 @@
         <v>8</v>
       </c>
       <c r="X23" t="str">
-        <f>IF(V23=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>12</v>
       </c>
-      <c r="AA23" t="str">
-        <f>IF(N23=N21,"REP2",IF(N23=N20,"REP3","."))</f>
+      <c r="AB23" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3333,19 +3336,19 @@
         <v>20</v>
       </c>
       <c r="D24" t="str">
-        <f>IF(L24=0,T24,U24)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(L24=0,U24,T24)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F24" t="str">
-        <f>IF(AND(L24=0),"f",IF(AND(L24=1),"j",IF(AND(L24=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G24" t="str">
-        <f>IF(AND(V24=1,L24=0),"f",IF(AND(V24=1,L24=1),"j",IF(AND(V24=0,L24=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H24">
@@ -3379,19 +3382,19 @@
         <v>8</v>
       </c>
       <c r="R24">
-        <f>IF(L24=0,P24,Q24)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S24">
-        <f>IF(L24=0,Q24,P24)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="T24" t="str">
-        <f>CONCATENATE("images/choice_trial_",P24,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U24" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q24,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V24" s="8">
@@ -3401,24 +3404,24 @@
         <v>8</v>
       </c>
       <c r="X24" t="str">
-        <f>IF(V24=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y24">
         <v>1</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>11</v>
       </c>
-      <c r="AA24" t="str">
-        <f>IF(N24=N22,"REP2",IF(N24=N21,"REP3","."))</f>
+      <c r="AB24" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3429,19 +3432,19 @@
         <v>7</v>
       </c>
       <c r="D25" t="str">
-        <f>IF(L25=0,T25,U25)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E25" t="str">
-        <f>IF(L25=0,U25,T25)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="F25" t="str">
-        <f>IF(AND(L25=0),"f",IF(AND(L25=1),"j",IF(AND(L25=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G25" t="str">
-        <f>IF(AND(V25=1,L25=0),"f",IF(AND(V25=1,L25=1),"j",IF(AND(V25=0,L25=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H25">
@@ -3475,19 +3478,19 @@
         <v>6</v>
       </c>
       <c r="R25">
-        <f>IF(L25=0,P25,Q25)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="S25">
-        <f>IF(L25=0,Q25,P25)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="T25" t="str">
-        <f>CONCATENATE("images/choice_trial_",P25,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U25" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q25,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V25" s="8">
@@ -3497,24 +3500,24 @@
         <v>8</v>
       </c>
       <c r="X25" t="str">
-        <f>IF(V25=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y25">
         <v>1</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>12</v>
       </c>
-      <c r="AA25" t="str">
-        <f>IF(N25=N23,"REP2",IF(N25=N22,"REP3","."))</f>
+      <c r="AB25" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3525,19 +3528,19 @@
         <v>22</v>
       </c>
       <c r="D26" t="str">
-        <f>IF(L26=0,T26,U26)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(L26=0,U26,T26)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F26" t="str">
-        <f>IF(AND(L26=0),"f",IF(AND(L26=1),"j",IF(AND(L26=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G26" t="str">
-        <f>IF(AND(V26=1,L26=0),"f",IF(AND(V26=1,L26=1),"j",IF(AND(V26=0,L26=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H26">
@@ -3571,19 +3574,19 @@
         <v>2</v>
       </c>
       <c r="R26">
-        <f>IF(L26=0,P26,Q26)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S26">
-        <f>IF(L26=0,Q26,P26)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="T26" t="str">
-        <f>CONCATENATE("images/choice_trial_",P26,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U26" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q26,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V26" s="7">
@@ -3593,24 +3596,24 @@
         <v>8</v>
       </c>
       <c r="X26" t="str">
-        <f>IF(V26=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y26">
         <v>1</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>13</v>
       </c>
-      <c r="AA26" t="str">
-        <f>IF(N26=N24,"REP2",IF(N26=N23,"REP3","."))</f>
+      <c r="AB26" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3621,19 +3624,19 @@
         <v>14</v>
       </c>
       <c r="D27" t="str">
-        <f>IF(L27=0,T27,U27)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E27" t="str">
-        <f>IF(L27=0,U27,T27)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="F27" t="str">
-        <f>IF(AND(L27=0),"f",IF(AND(L27=1),"j",IF(AND(L27=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G27" t="str">
-        <f>IF(AND(V27=1,L27=0),"f",IF(AND(V27=1,L27=1),"j",IF(AND(V27=0,L27=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H27">
@@ -3667,19 +3670,19 @@
         <v>12</v>
       </c>
       <c r="R27">
-        <f>IF(L27=0,P27,Q27)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="S27">
-        <f>IF(L27=0,Q27,P27)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="T27" t="str">
-        <f>CONCATENATE("images/choice_trial_",P27,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U27" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q27,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V27">
@@ -3689,24 +3692,24 @@
         <v>8</v>
       </c>
       <c r="X27" t="str">
-        <f>IF(V27=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>13</v>
       </c>
-      <c r="AA27" t="str">
-        <f>IF(N27=N25,"REP2",IF(N27=N24,"REP3","."))</f>
+      <c r="AB27" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3717,19 +3720,19 @@
         <v>12</v>
       </c>
       <c r="D28" t="str">
-        <f>IF(L28=0,T28,U28)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E28" t="str">
-        <f>IF(L28=0,U28,T28)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F28" t="str">
-        <f>IF(AND(L28=0),"f",IF(AND(L28=1),"j",IF(AND(L28=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G28" t="str">
-        <f>IF(AND(V28=1,L28=0),"f",IF(AND(V28=1,L28=1),"j",IF(AND(V28=0,L28=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H28">
@@ -3763,19 +3766,19 @@
         <v>10</v>
       </c>
       <c r="R28">
-        <f>IF(L28=0,P28,Q28)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="S28">
-        <f>IF(L28=0,Q28,P28)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="T28" t="str">
-        <f>CONCATENATE("images/choice_trial_",P28,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U28" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q28,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V28" s="3">
@@ -3785,24 +3788,24 @@
         <v>8</v>
       </c>
       <c r="X28" t="str">
-        <f>IF(V28=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>14</v>
       </c>
-      <c r="AA28" t="str">
-        <f>IF(N28=N26,"REP2",IF(N28=N25,"REP3","."))</f>
+      <c r="AB28" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3813,19 +3816,19 @@
         <v>7</v>
       </c>
       <c r="D29" t="str">
-        <f>IF(L29=0,T29,U29)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E29" t="str">
-        <f>IF(L29=0,U29,T29)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="F29" t="str">
-        <f>IF(AND(L29=0),"f",IF(AND(L29=1),"j",IF(AND(L29=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G29" t="str">
-        <f>IF(AND(V29=1,L29=0),"f",IF(AND(V29=1,L29=1),"j",IF(AND(V29=0,L29=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H29">
@@ -3859,19 +3862,19 @@
         <v>6</v>
       </c>
       <c r="R29">
-        <f>IF(L29=0,P29,Q29)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="S29">
-        <f>IF(L29=0,Q29,P29)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="T29" t="str">
-        <f>CONCATENATE("images/choice_trial_",P29,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U29" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q29,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V29" s="6">
@@ -3881,24 +3884,24 @@
         <v>8</v>
       </c>
       <c r="X29" t="str">
-        <f>IF(V29=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y29">
         <v>1</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>14</v>
       </c>
-      <c r="AA29" t="str">
-        <f>IF(N29=N27,"REP2",IF(N29=N26,"REP3","."))</f>
+      <c r="AB29" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3909,19 +3912,19 @@
         <v>20</v>
       </c>
       <c r="D30" t="str">
-        <f>IF(L30=0,T30,U30)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E30" t="str">
-        <f>IF(L30=0,U30,T30)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F30" t="str">
-        <f>IF(AND(L30=0),"f",IF(AND(L30=1),"j",IF(AND(L30=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G30" t="str">
-        <f>IF(AND(V30=1,L30=0),"f",IF(AND(V30=1,L30=1),"j",IF(AND(V30=0,L30=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H30">
@@ -3955,19 +3958,19 @@
         <v>8</v>
       </c>
       <c r="R30">
-        <f>IF(L30=0,P30,Q30)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S30">
-        <f>IF(L30=0,Q30,P30)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="T30" t="str">
-        <f>CONCATENATE("images/choice_trial_",P30,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U30" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q30,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V30" s="6">
@@ -3977,24 +3980,24 @@
         <v>8</v>
       </c>
       <c r="X30" t="str">
-        <f>IF(V30=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y30">
         <v>1</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>15</v>
       </c>
-      <c r="AA30" t="str">
-        <f>IF(N30=N28,"REP2",IF(N30=N27,"REP3","."))</f>
+      <c r="AB30" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4005,19 +4008,19 @@
         <v>10</v>
       </c>
       <c r="D31" t="str">
-        <f>IF(L31=0,T31,U31)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(L31=0,U31,T31)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F31" t="str">
-        <f>IF(AND(L31=0),"f",IF(AND(L31=1),"j",IF(AND(L31=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G31" t="str">
-        <f>IF(AND(V31=1,L31=0),"f",IF(AND(V31=1,L31=1),"j",IF(AND(V31=0,L31=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H31">
@@ -4051,19 +4054,19 @@
         <v>14</v>
       </c>
       <c r="R31">
-        <f>IF(L31=0,P31,Q31)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="S31">
-        <f>IF(L31=0,Q31,P31)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="T31" t="str">
-        <f>CONCATENATE("images/choice_trial_",P31,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U31" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q31,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V31">
@@ -4073,24 +4076,24 @@
         <v>8</v>
       </c>
       <c r="X31" t="str">
-        <f>IF(V31=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>15</v>
       </c>
-      <c r="AA31" t="str">
-        <f>IF(N31=N29,"REP2",IF(N31=N28,"REP3","."))</f>
+      <c r="AB31" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4101,19 +4104,19 @@
         <v>22</v>
       </c>
       <c r="D32" t="str">
-        <f>IF(L32=0,T32,U32)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(L32=0,U32,T32)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F32" t="str">
-        <f>IF(AND(L32=0),"f",IF(AND(L32=1),"j",IF(AND(L32=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G32" t="str">
-        <f>IF(AND(V32=1,L32=0),"f",IF(AND(V32=1,L32=1),"j",IF(AND(V32=0,L32=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H32">
@@ -4147,19 +4150,19 @@
         <v>2</v>
       </c>
       <c r="R32">
-        <f>IF(L32=0,P32,Q32)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S32">
-        <f>IF(L32=0,Q32,P32)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="T32" t="str">
-        <f>CONCATENATE("images/choice_trial_",P32,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U32" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q32,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V32" s="6">
@@ -4169,24 +4172,24 @@
         <v>8</v>
       </c>
       <c r="X32" t="str">
-        <f>IF(V32=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y32">
         <v>1</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>16</v>
       </c>
-      <c r="AA32" t="str">
-        <f>IF(N32=N30,"REP2",IF(N32=N29,"REP3","."))</f>
+      <c r="AB32" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4197,19 +4200,19 @@
         <v>7</v>
       </c>
       <c r="D33" t="str">
-        <f>IF(L33=0,T33,U33)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="E33" t="str">
-        <f>IF(L33=0,U33,T33)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F33" t="str">
-        <f>IF(AND(L33=0),"f",IF(AND(L33=1),"j",IF(AND(L33=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G33" t="str">
-        <f>IF(AND(V33=1,L33=0),"f",IF(AND(V33=1,L33=1),"j",IF(AND(V33=0,L33=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H33">
@@ -4243,19 +4246,19 @@
         <v>6</v>
       </c>
       <c r="R33">
-        <f>IF(L33=0,P33,Q33)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="S33">
-        <f>IF(L33=0,Q33,P33)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="T33" t="str">
-        <f>CONCATENATE("images/choice_trial_",P33,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U33" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q33,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V33" s="12">
@@ -4265,24 +4268,24 @@
         <v>8</v>
       </c>
       <c r="X33" t="str">
-        <f>IF(V33=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>17</v>
       </c>
-      <c r="AA33" t="str">
-        <f>IF(N33=N31,"REP2",IF(N33=N30,"REP3","."))</f>
+      <c r="AB33" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4293,19 +4296,19 @@
         <v>10</v>
       </c>
       <c r="D34" t="str">
-        <f>IF(L34=0,T34,U34)</f>
+        <f t="shared" ref="D34:D65" si="10">IF(L34=0,T34,U34)</f>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(L34=0,U34,T34)</f>
+        <f t="shared" ref="E34:E65" si="11">IF(L34=0,U34,T34)</f>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F34" t="str">
-        <f>IF(AND(L34=0),"f",IF(AND(L34=1),"j",IF(AND(L34=0),"j","f")))</f>
+        <f t="shared" ref="F34:F65" si="12">IF(AND(L34=0),"f",IF(AND(L34=1),"j",IF(AND(L34=0),"j","f")))</f>
         <v>j</v>
       </c>
       <c r="G34" t="str">
-        <f>IF(AND(V34=1,L34=0),"f",IF(AND(V34=1,L34=1),"j",IF(AND(V34=0,L34=0),"j","f")))</f>
+        <f t="shared" ref="G34:G65" si="13">IF(AND(V34=1,L34=0),"f",IF(AND(V34=1,L34=1),"j",IF(AND(V34=0,L34=0),"j","f")))</f>
         <v>j</v>
       </c>
       <c r="H34">
@@ -4339,19 +4342,19 @@
         <v>14</v>
       </c>
       <c r="R34">
-        <f>IF(L34=0,P34,Q34)</f>
+        <f t="shared" ref="R34:R65" si="14">IF(L34=0,P34,Q34)</f>
         <v>14</v>
       </c>
       <c r="S34">
-        <f>IF(L34=0,Q34,P34)</f>
+        <f t="shared" ref="S34:S65" si="15">IF(L34=0,Q34,P34)</f>
         <v>13</v>
       </c>
       <c r="T34" t="str">
-        <f>CONCATENATE("images/choice_trial_",P34,".png")</f>
+        <f t="shared" ref="T34:T65" si="16">CONCATENATE("images/choice_trial_",P34,".png")</f>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U34" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q34,".png")</f>
+        <f t="shared" ref="U34:U65" si="17">CONCATENATE("images/choice_trial_",Q34,".png")</f>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V34">
@@ -4361,24 +4364,24 @@
         <v>8</v>
       </c>
       <c r="X34" t="str">
-        <f>IF(V34=1,"f","j")</f>
+        <f t="shared" ref="X34:X65" si="18">IF(V34=1,"f","j")</f>
         <v>f</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>16</v>
       </c>
-      <c r="AA34" t="str">
-        <f>IF(N34=N32,"REP2",IF(N34=N31,"REP3","."))</f>
+      <c r="AB34" t="str">
+        <f t="shared" si="9"/>
         <v>REP3</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4389,19 +4392,19 @@
         <v>12</v>
       </c>
       <c r="D35" t="str">
-        <f>IF(L35=0,T35,U35)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(L35=0,U35,T35)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F35" t="str">
-        <f>IF(AND(L35=0),"f",IF(AND(L35=1),"j",IF(AND(L35=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G35" t="str">
-        <f>IF(AND(V35=1,L35=0),"f",IF(AND(V35=1,L35=1),"j",IF(AND(V35=0,L35=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H35">
@@ -4435,19 +4438,19 @@
         <v>10</v>
       </c>
       <c r="R35">
-        <f>IF(L35=0,P35,Q35)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="S35">
-        <f>IF(L35=0,Q35,P35)</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="T35" t="str">
-        <f>CONCATENATE("images/choice_trial_",P35,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U35" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q35,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V35">
@@ -4457,24 +4460,24 @@
         <v>8</v>
       </c>
       <c r="X35" t="str">
-        <f>IF(V35=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>17</v>
       </c>
-      <c r="AA35" t="str">
-        <f>IF(N35=N33,"REP2",IF(N35=N32,"REP3","."))</f>
+      <c r="AB35" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4485,19 +4488,19 @@
         <v>20</v>
       </c>
       <c r="D36" t="str">
-        <f>IF(L36=0,T36,U36)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(L36=0,U36,T36)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F36" t="str">
-        <f>IF(AND(L36=0),"f",IF(AND(L36=1),"j",IF(AND(L36=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G36" t="str">
-        <f>IF(AND(V36=1,L36=0),"f",IF(AND(V36=1,L36=1),"j",IF(AND(V36=0,L36=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H36">
@@ -4531,19 +4534,19 @@
         <v>8</v>
       </c>
       <c r="R36">
-        <f>IF(L36=0,P36,Q36)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="S36">
-        <f>IF(L36=0,Q36,P36)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="T36" t="str">
-        <f>CONCATENATE("images/choice_trial_",P36,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U36" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q36,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V36" s="6">
@@ -4553,24 +4556,24 @@
         <v>8</v>
       </c>
       <c r="X36" t="str">
-        <f>IF(V36=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y36">
         <v>1</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>18</v>
       </c>
-      <c r="AA36" t="str">
-        <f>IF(N36=N34,"REP2",IF(N36=N33,"REP3","."))</f>
+      <c r="AB36" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4581,19 +4584,19 @@
         <v>14</v>
       </c>
       <c r="D37" t="str">
-        <f>IF(L37=0,T37,U37)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(L37=0,U37,T37)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F37" t="str">
-        <f>IF(AND(L37=0),"f",IF(AND(L37=1),"j",IF(AND(L37=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G37" t="str">
-        <f>IF(AND(V37=1,L37=0),"f",IF(AND(V37=1,L37=1),"j",IF(AND(V37=0,L37=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H37">
@@ -4627,19 +4630,19 @@
         <v>12</v>
       </c>
       <c r="R37">
-        <f>IF(L37=0,P37,Q37)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="S37">
-        <f>IF(L37=0,Q37,P37)</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="T37" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",P37,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U37" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q37,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V37" s="13">
@@ -4649,24 +4652,24 @@
         <v>8</v>
       </c>
       <c r="X37" t="str">
-        <f>IF(V37=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>18</v>
       </c>
-      <c r="AA37" t="str">
-        <f>IF(N37=N35,"REP2",IF(N37=N34,"REP3","."))</f>
+      <c r="AB37" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4677,19 +4680,19 @@
         <v>22</v>
       </c>
       <c r="D38" t="str">
-        <f>IF(L38=0,T38,U38)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(L38=0,U38,T38)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="F38" t="str">
-        <f>IF(AND(L38=0),"f",IF(AND(L38=1),"j",IF(AND(L38=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G38" t="str">
-        <f>IF(AND(V38=1,L38=0),"f",IF(AND(V38=1,L38=1),"j",IF(AND(V38=0,L38=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H38">
@@ -4723,19 +4726,19 @@
         <v>2</v>
       </c>
       <c r="R38">
-        <f>IF(L38=0,P38,Q38)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="S38">
-        <f>IF(L38=0,Q38,P38)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="T38" t="str">
-        <f>CONCATENATE("images/choice_trial_",P38,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U38" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q38,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V38" s="6">
@@ -4745,24 +4748,24 @@
         <v>8</v>
       </c>
       <c r="X38" t="str">
-        <f>IF(V38=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y38">
         <v>1</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>19</v>
       </c>
-      <c r="AA38" t="str">
-        <f>IF(N38=N36,"REP2",IF(N38=N35,"REP3","."))</f>
+      <c r="AB38" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4773,19 +4776,19 @@
         <v>10</v>
       </c>
       <c r="D39" t="str">
-        <f>IF(L39=0,T39,U39)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E39" t="str">
-        <f>IF(L39=0,U39,T39)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F39" t="str">
-        <f>IF(AND(L39=0),"f",IF(AND(L39=1),"j",IF(AND(L39=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G39" t="str">
-        <f>IF(AND(V39=1,L39=0),"f",IF(AND(V39=1,L39=1),"j",IF(AND(V39=0,L39=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H39">
@@ -4819,19 +4822,19 @@
         <v>14</v>
       </c>
       <c r="R39">
-        <f>IF(L39=0,P39,Q39)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="S39">
-        <f>IF(L39=0,Q39,P39)</f>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="T39" t="str">
-        <f>CONCATENATE("images/choice_trial_",P39,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U39" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q39,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V39">
@@ -4841,24 +4844,24 @@
         <v>8</v>
       </c>
       <c r="X39" t="str">
-        <f>IF(V39=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>j</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>19</v>
       </c>
-      <c r="AA39" t="str">
-        <f>IF(N39=N37,"REP2",IF(N39=N36,"REP3","."))</f>
+      <c r="AB39" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4869,19 +4872,19 @@
         <v>12</v>
       </c>
       <c r="D40" t="str">
-        <f>IF(L40=0,T40,U40)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E40" t="str">
-        <f>IF(L40=0,U40,T40)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F40" t="str">
-        <f>IF(AND(L40=0),"f",IF(AND(L40=1),"j",IF(AND(L40=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G40" t="str">
-        <f>IF(AND(V40=1,L40=0),"f",IF(AND(V40=1,L40=1),"j",IF(AND(V40=0,L40=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H40">
@@ -4915,19 +4918,19 @@
         <v>10</v>
       </c>
       <c r="R40">
-        <f>IF(L40=0,P40,Q40)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="S40">
-        <f>IF(L40=0,Q40,P40)</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="T40" t="str">
-        <f>CONCATENATE("images/choice_trial_",P40,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U40" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q40,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V40">
@@ -4937,24 +4940,24 @@
         <v>8</v>
       </c>
       <c r="X40" t="str">
-        <f>IF(V40=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>20</v>
       </c>
-      <c r="AA40" t="str">
-        <f>IF(N40=N38,"REP2",IF(N40=N37,"REP3","."))</f>
+      <c r="AB40" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4965,19 +4968,19 @@
         <v>20</v>
       </c>
       <c r="D41" t="str">
-        <f>IF(L41=0,T41,U41)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(L41=0,U41,T41)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F41" t="str">
-        <f>IF(AND(L41=0),"f",IF(AND(L41=1),"j",IF(AND(L41=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G41" t="str">
-        <f>IF(AND(V41=1,L41=0),"f",IF(AND(V41=1,L41=1),"j",IF(AND(V41=0,L41=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H41">
@@ -5011,19 +5014,19 @@
         <v>8</v>
       </c>
       <c r="R41">
-        <f>IF(L41=0,P41,Q41)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="S41">
-        <f>IF(L41=0,Q41,P41)</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="T41" t="str">
-        <f>CONCATENATE("images/choice_trial_",P41,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U41" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q41,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V41" s="6">
@@ -5033,24 +5036,24 @@
         <v>8</v>
       </c>
       <c r="X41" t="str">
-        <f>IF(V41=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>j</v>
       </c>
       <c r="Y41">
         <v>1</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>20</v>
       </c>
-      <c r="AA41" t="str">
-        <f>IF(N41=N39,"REP2",IF(N41=N38,"REP3","."))</f>
+      <c r="AB41" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5061,19 +5064,19 @@
         <v>7</v>
       </c>
       <c r="D42" t="str">
-        <f>IF(L42=0,T42,U42)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E42" t="str">
-        <f>IF(L42=0,U42,T42)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="F42" t="str">
-        <f>IF(AND(L42=0),"f",IF(AND(L42=1),"j",IF(AND(L42=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G42" t="str">
-        <f>IF(AND(V42=1,L42=0),"f",IF(AND(V42=1,L42=1),"j",IF(AND(V42=0,L42=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H42">
@@ -5107,19 +5110,19 @@
         <v>6</v>
       </c>
       <c r="R42">
-        <f>IF(L42=0,P42,Q42)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="S42">
-        <f>IF(L42=0,Q42,P42)</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="T42" t="str">
-        <f>CONCATENATE("images/choice_trial_",P42,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U42" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q42,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V42" s="6">
@@ -5129,24 +5132,24 @@
         <v>8</v>
       </c>
       <c r="X42" t="str">
-        <f>IF(V42=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y42">
         <v>1</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>21</v>
       </c>
-      <c r="AA42" t="str">
-        <f>IF(N42=N40,"REP2",IF(N42=N39,"REP3","."))</f>
+      <c r="AB42" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5157,19 +5160,19 @@
         <v>14</v>
       </c>
       <c r="D43" t="str">
-        <f>IF(L43=0,T43,U43)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="E43" t="str">
-        <f>IF(L43=0,U43,T43)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F43" t="str">
-        <f>IF(AND(L43=0),"f",IF(AND(L43=1),"j",IF(AND(L43=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G43" t="str">
-        <f>IF(AND(V43=1,L43=0),"f",IF(AND(V43=1,L43=1),"j",IF(AND(V43=0,L43=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H43">
@@ -5203,19 +5206,19 @@
         <v>12</v>
       </c>
       <c r="R43">
-        <f>IF(L43=0,P43,Q43)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="S43">
-        <f>IF(L43=0,Q43,P43)</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="T43" t="str">
-        <f>CONCATENATE("images/choice_trial_",P43,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U43" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q43,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V43">
@@ -5225,24 +5228,24 @@
         <v>8</v>
       </c>
       <c r="X43" t="str">
-        <f>IF(V43=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y43">
         <v>0</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>21</v>
       </c>
-      <c r="AA43" t="str">
-        <f>IF(N43=N41,"REP2",IF(N43=N40,"REP3","."))</f>
+      <c r="AB43" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5253,19 +5256,19 @@
         <v>14</v>
       </c>
       <c r="D44" t="str">
-        <f>IF(L44=0,T44,U44)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E44" t="str">
-        <f>IF(L44=0,U44,T44)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="F44" t="str">
-        <f>IF(AND(L44=0),"f",IF(AND(L44=1),"j",IF(AND(L44=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G44" t="str">
-        <f>IF(AND(V44=1,L44=0),"f",IF(AND(V44=1,L44=1),"j",IF(AND(V44=0,L44=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H44">
@@ -5299,19 +5302,19 @@
         <v>12</v>
       </c>
       <c r="R44">
-        <f>IF(L44=0,P44,Q44)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="S44">
-        <f>IF(L44=0,Q44,P44)</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="T44" t="str">
-        <f>CONCATENATE("images/choice_trial_",P44,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U44" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q44,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V44">
@@ -5321,24 +5324,24 @@
         <v>8</v>
       </c>
       <c r="X44" t="str">
-        <f>IF(V44=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y44">
         <v>0</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>22</v>
       </c>
-      <c r="AA44" t="str">
-        <f>IF(N44=N42,"REP2",IF(N44=N41,"REP3","."))</f>
+      <c r="AB44" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5349,19 +5352,19 @@
         <v>20</v>
       </c>
       <c r="D45" t="str">
-        <f>IF(L45=0,T45,U45)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E45" t="str">
-        <f>IF(L45=0,U45,T45)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F45" t="str">
-        <f>IF(AND(L45=0),"f",IF(AND(L45=1),"j",IF(AND(L45=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G45" t="str">
-        <f>IF(AND(V45=1,L45=0),"f",IF(AND(V45=1,L45=1),"j",IF(AND(V45=0,L45=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H45">
@@ -5395,19 +5398,19 @@
         <v>8</v>
       </c>
       <c r="R45">
-        <f>IF(L45=0,P45,Q45)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="S45">
-        <f>IF(L45=0,Q45,P45)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="T45" t="str">
-        <f>CONCATENATE("images/choice_trial_",P45,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U45" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q45,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V45" s="6">
@@ -5417,24 +5420,24 @@
         <v>8</v>
       </c>
       <c r="X45" t="str">
-        <f>IF(V45=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y45">
         <v>1</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>22</v>
       </c>
-      <c r="AA45" t="str">
-        <f>IF(N45=N43,"REP2",IF(N45=N42,"REP3","."))</f>
+      <c r="AB45" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="AB45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5445,19 +5448,19 @@
         <v>7</v>
       </c>
       <c r="D46" t="str">
-        <f>IF(L46=0,T46,U46)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="E46" t="str">
-        <f>IF(L46=0,U46,T46)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F46" t="str">
-        <f>IF(AND(L46=0),"f",IF(AND(L46=1),"j",IF(AND(L46=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G46" t="str">
-        <f>IF(AND(V46=1,L46=0),"f",IF(AND(V46=1,L46=1),"j",IF(AND(V46=0,L46=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H46">
@@ -5491,19 +5494,19 @@
         <v>6</v>
       </c>
       <c r="R46">
-        <f>IF(L46=0,P46,Q46)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="S46">
-        <f>IF(L46=0,Q46,P46)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="T46" t="str">
-        <f>CONCATENATE("images/choice_trial_",P46,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U46" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q46,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V46" s="6">
@@ -5513,24 +5516,24 @@
         <v>8</v>
       </c>
       <c r="X46" t="str">
-        <f>IF(V46=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y46">
         <v>1</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>23</v>
       </c>
-      <c r="AA46" t="str">
-        <f>IF(N46=N44,"REP2",IF(N46=N43,"REP3","."))</f>
+      <c r="AB46" t="str">
+        <f t="shared" ref="AB46:AB77" si="19">IF(N46=N44,"REP2",IF(N46=N43,"REP3","."))</f>
         <v>.</v>
       </c>
-      <c r="AB46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5541,19 +5544,19 @@
         <v>12</v>
       </c>
       <c r="D47" t="str">
-        <f>IF(L47=0,T47,U47)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E47" t="str">
-        <f>IF(L47=0,U47,T47)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F47" t="str">
-        <f>IF(AND(L47=0),"f",IF(AND(L47=1),"j",IF(AND(L47=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G47" t="str">
-        <f>IF(AND(V47=1,L47=0),"f",IF(AND(V47=1,L47=1),"j",IF(AND(V47=0,L47=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H47">
@@ -5587,19 +5590,19 @@
         <v>10</v>
       </c>
       <c r="R47">
-        <f>IF(L47=0,P47,Q47)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="S47">
-        <f>IF(L47=0,Q47,P47)</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="T47" t="str">
-        <f>CONCATENATE("images/choice_trial_",P47,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U47" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q47,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V47">
@@ -5609,24 +5612,24 @@
         <v>8</v>
       </c>
       <c r="X47" t="str">
-        <f>IF(V47=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y47">
         <v>0</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>23</v>
       </c>
-      <c r="AA47" t="str">
-        <f>IF(N47=N45,"REP2",IF(N47=N44,"REP3","."))</f>
+      <c r="AB47" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5637,19 +5640,19 @@
         <v>22</v>
       </c>
       <c r="D48" t="str">
-        <f>IF(L48=0,T48,U48)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="E48" t="str">
-        <f>IF(L48=0,U48,T48)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F48" t="str">
-        <f>IF(AND(L48=0),"f",IF(AND(L48=1),"j",IF(AND(L48=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G48" t="str">
-        <f>IF(AND(V48=1,L48=0),"f",IF(AND(V48=1,L48=1),"j",IF(AND(V48=0,L48=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H48">
@@ -5683,19 +5686,19 @@
         <v>2</v>
       </c>
       <c r="R48">
-        <f>IF(L48=0,P48,Q48)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S48">
-        <f>IF(L48=0,Q48,P48)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="T48" t="str">
-        <f>CONCATENATE("images/choice_trial_",P48,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U48" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q48,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V48" s="6">
@@ -5705,24 +5708,24 @@
         <v>8</v>
       </c>
       <c r="X48" t="str">
-        <f>IF(V48=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>j</v>
       </c>
       <c r="Y48">
         <v>1</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>24</v>
       </c>
-      <c r="AA48" t="str">
-        <f>IF(N48=N46,"REP2",IF(N48=N45,"REP3","."))</f>
+      <c r="AB48" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5733,19 +5736,19 @@
         <v>10</v>
       </c>
       <c r="D49" t="str">
-        <f>IF(L49=0,T49,U49)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E49" t="str">
-        <f>IF(L49=0,U49,T49)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F49" t="str">
-        <f>IF(AND(L49=0),"f",IF(AND(L49=1),"j",IF(AND(L49=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G49" t="str">
-        <f>IF(AND(V49=1,L49=0),"f",IF(AND(V49=1,L49=1),"j",IF(AND(V49=0,L49=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H49">
@@ -5779,19 +5782,19 @@
         <v>14</v>
       </c>
       <c r="R49">
-        <f>IF(L49=0,P49,Q49)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="S49">
-        <f>IF(L49=0,Q49,P49)</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="T49" t="str">
-        <f>CONCATENATE("images/choice_trial_",P49,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U49" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q49,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V49">
@@ -5801,24 +5804,24 @@
         <v>8</v>
       </c>
       <c r="X49" t="str">
-        <f>IF(V49=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y49">
         <v>0</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>24</v>
       </c>
-      <c r="AA49" t="str">
-        <f>IF(N49=N47,"REP2",IF(N49=N46,"REP3","."))</f>
+      <c r="AB49" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5829,19 +5832,19 @@
         <v>7</v>
       </c>
       <c r="D50" t="str">
-        <f>IF(L50=0,T50,U50)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="E50" t="str">
-        <f>IF(L50=0,U50,T50)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F50" t="str">
-        <f>IF(AND(L50=0),"f",IF(AND(L50=1),"j",IF(AND(L50=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G50" t="str">
-        <f>IF(AND(V50=1,L50=0),"f",IF(AND(V50=1,L50=1),"j",IF(AND(V50=0,L50=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H50">
@@ -5875,19 +5878,19 @@
         <v>6</v>
       </c>
       <c r="R50">
-        <f>IF(L50=0,P50,Q50)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="S50">
-        <f>IF(L50=0,Q50,P50)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="T50" t="str">
-        <f>CONCATENATE("images/choice_trial_",P50,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U50" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q50,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V50" s="6">
@@ -5897,24 +5900,24 @@
         <v>8</v>
       </c>
       <c r="X50" t="str">
-        <f>IF(V50=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y50">
         <v>1</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>25</v>
       </c>
-      <c r="AA50" t="str">
-        <f>IF(N50=N48,"REP2",IF(N50=N47,"REP3","."))</f>
+      <c r="AB50" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5925,19 +5928,19 @@
         <v>12</v>
       </c>
       <c r="D51" t="str">
-        <f>IF(L51=0,T51,U51)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E51" t="str">
-        <f>IF(L51=0,U51,T51)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F51" t="str">
-        <f>IF(AND(L51=0),"f",IF(AND(L51=1),"j",IF(AND(L51=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G51" t="str">
-        <f>IF(AND(V51=1,L51=0),"f",IF(AND(V51=1,L51=1),"j",IF(AND(V51=0,L51=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H51">
@@ -5971,19 +5974,19 @@
         <v>10</v>
       </c>
       <c r="R51">
-        <f>IF(L51=0,P51,Q51)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="S51">
-        <f>IF(L51=0,Q51,P51)</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="T51" t="str">
-        <f>CONCATENATE("images/choice_trial_",P51,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U51" s="15" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q51,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V51" s="5">
@@ -5993,24 +5996,25 @@
         <v>8</v>
       </c>
       <c r="X51" s="5" t="str">
-        <f>IF(V51=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>j</v>
       </c>
       <c r="Y51" s="5">
         <v>0</v>
       </c>
-      <c r="Z51" s="5">
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5">
         <v>25</v>
       </c>
-      <c r="AA51" t="str">
-        <f>IF(N51=N49,"REP2",IF(N51=N48,"REP3","."))</f>
+      <c r="AB51" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB51" s="5">
+      <c r="AC51" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6021,19 +6025,19 @@
         <v>20</v>
       </c>
       <c r="D52" t="str">
-        <f>IF(L52=0,T52,U52)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E52" t="str">
-        <f>IF(L52=0,U52,T52)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F52" t="str">
-        <f>IF(AND(L52=0),"f",IF(AND(L52=1),"j",IF(AND(L52=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G52" t="str">
-        <f>IF(AND(V52=1,L52=0),"f",IF(AND(V52=1,L52=1),"j",IF(AND(V52=0,L52=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H52">
@@ -6067,19 +6071,19 @@
         <v>8</v>
       </c>
       <c r="R52">
-        <f>IF(L52=0,P52,Q52)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="S52">
-        <f>IF(L52=0,Q52,P52)</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="T52" t="str">
-        <f>CONCATENATE("images/choice_trial_",P52,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U52" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q52,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V52" s="6">
@@ -6089,24 +6093,24 @@
         <v>8</v>
       </c>
       <c r="X52" t="str">
-        <f>IF(V52=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y52">
         <v>1</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>26</v>
       </c>
-      <c r="AA52" t="str">
-        <f>IF(N52=N50,"REP2",IF(N52=N49,"REP3","."))</f>
+      <c r="AB52" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6117,19 +6121,19 @@
         <v>10</v>
       </c>
       <c r="D53" t="str">
-        <f>IF(L53=0,T53,U53)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E53" t="str">
-        <f>IF(L53=0,U53,T53)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F53" t="str">
-        <f>IF(AND(L53=0),"f",IF(AND(L53=1),"j",IF(AND(L53=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G53" t="str">
-        <f>IF(AND(V53=1,L53=0),"f",IF(AND(V53=1,L53=1),"j",IF(AND(V53=0,L53=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H53">
@@ -6163,19 +6167,19 @@
         <v>14</v>
       </c>
       <c r="R53">
-        <f>IF(L53=0,P53,Q53)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="S53">
-        <f>IF(L53=0,Q53,P53)</f>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="T53" t="str">
-        <f>CONCATENATE("images/choice_trial_",P53,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U53" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q53,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V53">
@@ -6185,24 +6189,24 @@
         <v>8</v>
       </c>
       <c r="X53" t="str">
-        <f>IF(V53=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y53">
         <v>0</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>26</v>
       </c>
-      <c r="AA53" t="str">
-        <f>IF(N53=N51,"REP2",IF(N53=N50,"REP3","."))</f>
+      <c r="AB53" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6213,19 +6217,19 @@
         <v>14</v>
       </c>
       <c r="D54" t="str">
-        <f>IF(L54=0,T54,U54)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E54" t="str">
-        <f>IF(L54=0,U54,T54)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="F54" t="str">
-        <f>IF(AND(L54=0),"f",IF(AND(L54=1),"j",IF(AND(L54=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G54" t="str">
-        <f>IF(AND(V54=1,L54=0),"f",IF(AND(V54=1,L54=1),"j",IF(AND(V54=0,L54=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H54">
@@ -6259,19 +6263,19 @@
         <v>12</v>
       </c>
       <c r="R54">
-        <f>IF(L54=0,P54,Q54)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="S54">
-        <f>IF(L54=0,Q54,P54)</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="T54" t="str">
-        <f>CONCATENATE("images/choice_trial_",P54,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U54" s="15" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q54,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V54" s="5">
@@ -6281,24 +6285,25 @@
         <v>8</v>
       </c>
       <c r="X54" s="5" t="str">
-        <f>IF(V54=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y54" s="5">
         <v>0</v>
       </c>
-      <c r="Z54" s="5">
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5">
         <v>27</v>
       </c>
-      <c r="AA54" t="str">
-        <f>IF(N54=N52,"REP2",IF(N54=N51,"REP3","."))</f>
+      <c r="AB54" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB54" s="5">
+      <c r="AC54" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6309,19 +6314,19 @@
         <v>22</v>
       </c>
       <c r="D55" t="str">
-        <f>IF(L55=0,T55,U55)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="E55" t="str">
-        <f>IF(L55=0,U55,T55)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F55" t="str">
-        <f>IF(AND(L55=0),"f",IF(AND(L55=1),"j",IF(AND(L55=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G55" t="str">
-        <f>IF(AND(V55=1,L55=0),"f",IF(AND(V55=1,L55=1),"j",IF(AND(V55=0,L55=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H55">
@@ -6355,19 +6360,19 @@
         <v>2</v>
       </c>
       <c r="R55">
-        <f>IF(L55=0,P55,Q55)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S55">
-        <f>IF(L55=0,Q55,P55)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="T55" t="str">
-        <f>CONCATENATE("images/choice_trial_",P55,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U55" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q55,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V55" s="6">
@@ -6377,24 +6382,24 @@
         <v>8</v>
       </c>
       <c r="X55" t="str">
-        <f>IF(V55=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y55">
         <v>1</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>27</v>
       </c>
-      <c r="AA55" t="str">
-        <f>IF(N55=N53,"REP2",IF(N55=N52,"REP3","."))</f>
+      <c r="AB55" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB55">
+      <c r="AC55">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6405,19 +6410,19 @@
         <v>7</v>
       </c>
       <c r="D56" t="str">
-        <f>IF(L56=0,T56,U56)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E56" t="str">
-        <f>IF(L56=0,U56,T56)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="F56" t="str">
-        <f>IF(AND(L56=0),"f",IF(AND(L56=1),"j",IF(AND(L56=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G56" t="str">
-        <f>IF(AND(V56=1,L56=0),"f",IF(AND(V56=1,L56=1),"j",IF(AND(V56=0,L56=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H56">
@@ -6451,19 +6456,19 @@
         <v>6</v>
       </c>
       <c r="R56">
-        <f>IF(L56=0,P56,Q56)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="S56">
-        <f>IF(L56=0,Q56,P56)</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="T56" t="str">
-        <f>CONCATENATE("images/choice_trial_",P56,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U56" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q56,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V56" s="6">
@@ -6473,24 +6478,24 @@
         <v>8</v>
       </c>
       <c r="X56" t="str">
-        <f>IF(V56=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y56">
         <v>1</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>28</v>
       </c>
-      <c r="AA56" t="str">
-        <f>IF(N56=N54,"REP2",IF(N56=N53,"REP3","."))</f>
+      <c r="AB56" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB56">
+      <c r="AC56">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6501,19 +6506,19 @@
         <v>12</v>
       </c>
       <c r="D57" t="str">
-        <f>IF(L57=0,T57,U57)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E57" t="str">
-        <f>IF(L57=0,U57,T57)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F57" t="str">
-        <f>IF(AND(L57=0),"f",IF(AND(L57=1),"j",IF(AND(L57=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G57" t="str">
-        <f>IF(AND(V57=1,L57=0),"f",IF(AND(V57=1,L57=1),"j",IF(AND(V57=0,L57=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H57">
@@ -6547,19 +6552,19 @@
         <v>10</v>
       </c>
       <c r="R57">
-        <f>IF(L57=0,P57,Q57)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="S57">
-        <f>IF(L57=0,Q57,P57)</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="T57" t="str">
-        <f>CONCATENATE("images/choice_trial_",P57,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U57" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q57,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V57" s="5">
@@ -6569,24 +6574,24 @@
         <v>8</v>
       </c>
       <c r="X57" t="str">
-        <f>IF(V57=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y57">
         <v>0</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>28</v>
       </c>
-      <c r="AA57" t="str">
-        <f>IF(N57=N55,"REP2",IF(N57=N54,"REP3","."))</f>
+      <c r="AB57" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB57">
+      <c r="AC57">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6597,19 +6602,19 @@
         <v>10</v>
       </c>
       <c r="D58" t="str">
-        <f>IF(L58=0,T58,U58)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E58" t="str">
-        <f>IF(L58=0,U58,T58)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F58" t="str">
-        <f>IF(AND(L58=0),"f",IF(AND(L58=1),"j",IF(AND(L58=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G58" t="str">
-        <f>IF(AND(V58=1,L58=0),"f",IF(AND(V58=1,L58=1),"j",IF(AND(V58=0,L58=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H58">
@@ -6643,19 +6648,19 @@
         <v>14</v>
       </c>
       <c r="R58">
-        <f>IF(L58=0,P58,Q58)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="S58">
-        <f>IF(L58=0,Q58,P58)</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="T58" t="str">
-        <f>CONCATENATE("images/choice_trial_",P58,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U58" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q58,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V58">
@@ -6665,24 +6670,24 @@
         <v>8</v>
       </c>
       <c r="X58" t="str">
-        <f>IF(V58=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y58">
         <v>0</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>30</v>
       </c>
-      <c r="AA58" t="str">
-        <f>IF(N58=N56,"REP2",IF(N58=N55,"REP3","."))</f>
+      <c r="AB58" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB58">
+      <c r="AC58">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6693,19 +6698,19 @@
         <v>22</v>
       </c>
       <c r="D59" t="str">
-        <f>IF(L59=0,T59,U59)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E59" t="str">
-        <f>IF(L59=0,U59,T59)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="F59" t="str">
-        <f>IF(AND(L59=0),"f",IF(AND(L59=1),"j",IF(AND(L59=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G59" t="str">
-        <f>IF(AND(V59=1,L59=0),"f",IF(AND(V59=1,L59=1),"j",IF(AND(V59=0,L59=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H59">
@@ -6739,19 +6744,19 @@
         <v>2</v>
       </c>
       <c r="R59">
-        <f>IF(L59=0,P59,Q59)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="S59">
-        <f>IF(L59=0,Q59,P59)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="T59" t="str">
-        <f>CONCATENATE("images/choice_trial_",P59,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U59" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q59,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V59" s="6">
@@ -6761,24 +6766,24 @@
         <v>8</v>
       </c>
       <c r="X59" t="str">
-        <f>IF(V59=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y59">
         <v>1</v>
       </c>
-      <c r="Z59">
+      <c r="AA59">
         <v>29</v>
       </c>
-      <c r="AA59" t="str">
-        <f>IF(N59=N57,"REP2",IF(N59=N56,"REP3","."))</f>
+      <c r="AB59" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB59">
+      <c r="AC59">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6789,19 +6794,19 @@
         <v>14</v>
       </c>
       <c r="D60" t="str">
-        <f>IF(L60=0,T60,U60)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="E60" t="str">
-        <f>IF(L60=0,U60,T60)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F60" t="str">
-        <f>IF(AND(L60=0),"f",IF(AND(L60=1),"j",IF(AND(L60=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G60" t="str">
-        <f>IF(AND(V60=1,L60=0),"f",IF(AND(V60=1,L60=1),"j",IF(AND(V60=0,L60=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H60">
@@ -6835,19 +6840,19 @@
         <v>12</v>
       </c>
       <c r="R60">
-        <f>IF(L60=0,P60,Q60)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="S60">
-        <f>IF(L60=0,Q60,P60)</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="T60" t="str">
-        <f>CONCATENATE("images/choice_trial_",P60,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U60" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q60,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V60">
@@ -6857,24 +6862,24 @@
         <v>8</v>
       </c>
       <c r="X60" t="str">
-        <f>IF(V60=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y60">
         <v>0</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>29</v>
       </c>
-      <c r="AA60" t="str">
-        <f>IF(N60=N58,"REP2",IF(N60=N57,"REP3","."))</f>
+      <c r="AB60" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB60">
+      <c r="AC60">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6885,19 +6890,19 @@
         <v>20</v>
       </c>
       <c r="D61" t="str">
-        <f>IF(L61=0,T61,U61)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E61" t="str">
-        <f>IF(L61=0,U61,T61)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F61" t="str">
-        <f>IF(AND(L61=0),"f",IF(AND(L61=1),"j",IF(AND(L61=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G61" t="str">
-        <f>IF(AND(V61=1,L61=0),"f",IF(AND(V61=1,L61=1),"j",IF(AND(V61=0,L61=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H61">
@@ -6931,19 +6936,19 @@
         <v>8</v>
       </c>
       <c r="R61">
-        <f>IF(L61=0,P61,Q61)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="S61">
-        <f>IF(L61=0,Q61,P61)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="T61" t="str">
-        <f>CONCATENATE("images/choice_trial_",P61,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U61" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q61,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V61" s="6">
@@ -6953,24 +6958,24 @@
         <v>8</v>
       </c>
       <c r="X61" t="str">
-        <f>IF(V61=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y61">
         <v>1</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>30</v>
       </c>
-      <c r="AA61" t="str">
-        <f>IF(N61=N59,"REP2",IF(N61=N58,"REP3","."))</f>
+      <c r="AB61" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB61">
+      <c r="AC61">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6981,19 +6986,19 @@
         <v>7</v>
       </c>
       <c r="D62" t="str">
-        <f>IF(L62=0,T62,U62)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="E62" t="str">
-        <f>IF(L62=0,U62,T62)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F62" t="str">
-        <f>IF(AND(L62=0),"f",IF(AND(L62=1),"j",IF(AND(L62=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G62" t="str">
-        <f>IF(AND(V62=1,L62=0),"f",IF(AND(V62=1,L62=1),"j",IF(AND(V62=0,L62=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H62">
@@ -7027,19 +7032,19 @@
         <v>6</v>
       </c>
       <c r="R62">
-        <f>IF(L62=0,P62,Q62)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="S62">
-        <f>IF(L62=0,Q62,P62)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="T62" t="str">
-        <f>CONCATENATE("images/choice_trial_",P62,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U62" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q62,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V62" s="6">
@@ -7049,24 +7054,24 @@
         <v>8</v>
       </c>
       <c r="X62" t="str">
-        <f>IF(V62=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y62">
         <v>1</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>31</v>
       </c>
-      <c r="AA62" t="str">
-        <f>IF(N62=N60,"REP2",IF(N62=N59,"REP3","."))</f>
+      <c r="AB62" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB62">
+      <c r="AC62">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7077,19 +7082,19 @@
         <v>10</v>
       </c>
       <c r="D63" t="str">
-        <f>IF(L63=0,T63,U63)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E63" t="str">
-        <f>IF(L63=0,U63,T63)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F63" t="str">
-        <f>IF(AND(L63=0),"f",IF(AND(L63=1),"j",IF(AND(L63=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G63" t="str">
-        <f>IF(AND(V63=1,L63=0),"f",IF(AND(V63=1,L63=1),"j",IF(AND(V63=0,L63=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H63">
@@ -7123,19 +7128,19 @@
         <v>14</v>
       </c>
       <c r="R63">
-        <f>IF(L63=0,P63,Q63)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="S63">
-        <f>IF(L63=0,Q63,P63)</f>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="T63" t="str">
-        <f>CONCATENATE("images/choice_trial_",P63,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U63" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q63,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V63">
@@ -7145,24 +7150,24 @@
         <v>8</v>
       </c>
       <c r="X63" t="str">
-        <f>IF(V63=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>j</v>
       </c>
       <c r="Y63">
         <v>0</v>
       </c>
-      <c r="Z63">
+      <c r="AA63">
         <v>32</v>
       </c>
-      <c r="AA63" t="str">
-        <f>IF(N63=N61,"REP2",IF(N63=N60,"REP3","."))</f>
+      <c r="AB63" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB63">
+      <c r="AC63">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7173,19 +7178,19 @@
         <v>20</v>
       </c>
       <c r="D64" t="str">
-        <f>IF(L64=0,T64,U64)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E64" t="str">
-        <f>IF(L64=0,U64,T64)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F64" t="str">
-        <f>IF(AND(L64=0),"f",IF(AND(L64=1),"j",IF(AND(L64=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="G64" t="str">
-        <f>IF(AND(V64=1,L64=0),"f",IF(AND(V64=1,L64=1),"j",IF(AND(V64=0,L64=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="H64">
@@ -7219,19 +7224,19 @@
         <v>8</v>
       </c>
       <c r="R64">
-        <f>IF(L64=0,P64,Q64)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="S64">
-        <f>IF(L64=0,Q64,P64)</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="T64" t="str">
-        <f>CONCATENATE("images/choice_trial_",P64,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U64" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q64,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V64" s="6">
@@ -7241,24 +7246,24 @@
         <v>8</v>
       </c>
       <c r="X64" t="str">
-        <f>IF(V64=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y64">
         <v>1</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <v>32</v>
       </c>
-      <c r="AA64" t="str">
-        <f>IF(N64=N62,"REP2",IF(N64=N61,"REP3","."))</f>
+      <c r="AB64" t="str">
+        <f t="shared" si="19"/>
         <v>REP3</v>
       </c>
-      <c r="AB64">
+      <c r="AC64">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7269,19 +7274,19 @@
         <v>14</v>
       </c>
       <c r="D65" t="str">
-        <f>IF(L65=0,T65,U65)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E65" t="str">
-        <f>IF(L65=0,U65,T65)</f>
+        <f t="shared" si="11"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="F65" t="str">
-        <f>IF(AND(L65=0),"f",IF(AND(L65=1),"j",IF(AND(L65=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="G65" t="str">
-        <f>IF(AND(V65=1,L65=0),"f",IF(AND(V65=1,L65=1),"j",IF(AND(V65=0,L65=0),"j","f")))</f>
+        <f t="shared" si="13"/>
         <v>f</v>
       </c>
       <c r="H65">
@@ -7315,19 +7320,19 @@
         <v>12</v>
       </c>
       <c r="R65">
-        <f>IF(L65=0,P65,Q65)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="S65">
-        <f>IF(L65=0,Q65,P65)</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="T65" t="str">
-        <f>CONCATENATE("images/choice_trial_",P65,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U65" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q65,".png")</f>
+        <f t="shared" si="17"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V65">
@@ -7337,24 +7342,24 @@
         <v>8</v>
       </c>
       <c r="X65" t="str">
-        <f>IF(V65=1,"f","j")</f>
+        <f t="shared" si="18"/>
         <v>f</v>
       </c>
       <c r="Y65">
         <v>0</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <v>31</v>
       </c>
-      <c r="AA65" t="str">
-        <f>IF(N65=N63,"REP2",IF(N65=N62,"REP3","."))</f>
+      <c r="AB65" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB65">
+      <c r="AC65">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7365,19 +7370,19 @@
         <v>22</v>
       </c>
       <c r="D66" t="str">
-        <f>IF(L66=0,T66,U66)</f>
+        <f t="shared" ref="D66:D97" si="20">IF(L66=0,T66,U66)</f>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E66" t="str">
-        <f>IF(L66=0,U66,T66)</f>
+        <f t="shared" ref="E66:E97" si="21">IF(L66=0,U66,T66)</f>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="F66" t="str">
-        <f>IF(AND(L66=0),"f",IF(AND(L66=1),"j",IF(AND(L66=0),"j","f")))</f>
+        <f t="shared" ref="F66:F97" si="22">IF(AND(L66=0),"f",IF(AND(L66=1),"j",IF(AND(L66=0),"j","f")))</f>
         <v>j</v>
       </c>
       <c r="G66" t="str">
-        <f>IF(AND(V66=1,L66=0),"f",IF(AND(V66=1,L66=1),"j",IF(AND(V66=0,L66=0),"j","f")))</f>
+        <f t="shared" ref="G66:G97" si="23">IF(AND(V66=1,L66=0),"f",IF(AND(V66=1,L66=1),"j",IF(AND(V66=0,L66=0),"j","f")))</f>
         <v>j</v>
       </c>
       <c r="H66">
@@ -7411,19 +7416,19 @@
         <v>2</v>
       </c>
       <c r="R66">
-        <f>IF(L66=0,P66,Q66)</f>
+        <f t="shared" ref="R66:R97" si="24">IF(L66=0,P66,Q66)</f>
         <v>2</v>
       </c>
       <c r="S66">
-        <f>IF(L66=0,Q66,P66)</f>
+        <f t="shared" ref="S66:S97" si="25">IF(L66=0,Q66,P66)</f>
         <v>1</v>
       </c>
       <c r="T66" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",P66,".png")</f>
+        <f t="shared" ref="T66:T97" si="26">CONCATENATE("images/choice_trial_",P66,".png")</f>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U66" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q66,".png")</f>
+        <f t="shared" ref="U66:U97" si="27">CONCATENATE("images/choice_trial_",Q66,".png")</f>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V66" s="12">
@@ -7433,24 +7438,24 @@
         <v>8</v>
       </c>
       <c r="X66" t="str">
-        <f>IF(V66=1,"f","j")</f>
+        <f t="shared" ref="X66:X97" si="28">IF(V66=1,"f","j")</f>
         <v>f</v>
       </c>
       <c r="Y66">
         <v>1</v>
       </c>
-      <c r="Z66">
+      <c r="AA66">
         <v>33</v>
       </c>
-      <c r="AA66" t="str">
-        <f>IF(N66=N64,"REP2",IF(N66=N63,"REP3","."))</f>
+      <c r="AB66" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB66">
+      <c r="AC66">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7461,19 +7466,19 @@
         <v>12</v>
       </c>
       <c r="D67" t="str">
-        <f>IF(L67=0,T67,U67)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E67" t="str">
-        <f>IF(L67=0,U67,T67)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F67" t="str">
-        <f>IF(AND(L67=0),"f",IF(AND(L67=1),"j",IF(AND(L67=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G67" t="str">
-        <f>IF(AND(V67=1,L67=0),"f",IF(AND(V67=1,L67=1),"j",IF(AND(V67=0,L67=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H67">
@@ -7507,19 +7512,19 @@
         <v>10</v>
       </c>
       <c r="R67">
-        <f>IF(L67=0,P67,Q67)</f>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="S67">
-        <f>IF(L67=0,Q67,P67)</f>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="T67" t="str">
-        <f>CONCATENATE("images/choice_trial_",P67,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U67" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q67,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V67">
@@ -7529,24 +7534,24 @@
         <v>8</v>
       </c>
       <c r="X67" t="str">
-        <f>IF(V67=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y67">
         <v>0</v>
       </c>
-      <c r="Z67">
+      <c r="AA67">
         <v>33</v>
       </c>
-      <c r="AA67" t="str">
-        <f>IF(N67=N65,"REP2",IF(N67=N64,"REP3","."))</f>
+      <c r="AB67" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB67">
+      <c r="AC67">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7557,19 +7562,19 @@
         <v>7</v>
       </c>
       <c r="D68" t="str">
-        <f>IF(L68=0,T68,U68)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E68" t="str">
-        <f>IF(L68=0,U68,T68)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="F68" t="str">
-        <f>IF(AND(L68=0),"f",IF(AND(L68=1),"j",IF(AND(L68=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>j</v>
       </c>
       <c r="G68" t="str">
-        <f>IF(AND(V68=1,L68=0),"f",IF(AND(V68=1,L68=1),"j",IF(AND(V68=0,L68=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>j</v>
       </c>
       <c r="H68">
@@ -7603,19 +7608,19 @@
         <v>6</v>
       </c>
       <c r="R68">
-        <f>IF(L68=0,P68,Q68)</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="S68">
-        <f>IF(L68=0,Q68,P68)</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="T68" t="str">
-        <f>CONCATENATE("images/choice_trial_",P68,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U68" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q68,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V68" s="6">
@@ -7625,24 +7630,24 @@
         <v>8</v>
       </c>
       <c r="X68" t="str">
-        <f>IF(V68=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y68">
         <v>1</v>
       </c>
-      <c r="Z68">
+      <c r="AA68">
         <v>34</v>
       </c>
-      <c r="AA68" t="str">
-        <f>IF(N68=N66,"REP2",IF(N68=N65,"REP3","."))</f>
+      <c r="AB68" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB68">
+      <c r="AC68">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7653,19 +7658,19 @@
         <v>10</v>
       </c>
       <c r="D69" t="str">
-        <f>IF(L69=0,T69,U69)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E69" t="str">
-        <f>IF(L69=0,U69,T69)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F69" t="str">
-        <f>IF(AND(L69=0),"f",IF(AND(L69=1),"j",IF(AND(L69=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G69" t="str">
-        <f>IF(AND(V69=1,L69=0),"f",IF(AND(V69=1,L69=1),"j",IF(AND(V69=0,L69=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H69">
@@ -7699,19 +7704,19 @@
         <v>14</v>
       </c>
       <c r="R69">
-        <f>IF(L69=0,P69,Q69)</f>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="S69">
-        <f>IF(L69=0,Q69,P69)</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="T69" t="str">
-        <f>CONCATENATE("images/choice_trial_",P69,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U69" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q69,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V69">
@@ -7721,24 +7726,24 @@
         <v>8</v>
       </c>
       <c r="X69" t="str">
-        <f>IF(V69=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y69">
         <v>0</v>
       </c>
-      <c r="Z69">
+      <c r="AA69">
         <v>34</v>
       </c>
-      <c r="AA69" t="str">
-        <f>IF(N69=N67,"REP2",IF(N69=N66,"REP3","."))</f>
+      <c r="AB69" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB69">
+      <c r="AC69">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7749,19 +7754,19 @@
         <v>22</v>
       </c>
       <c r="D70" t="str">
-        <f>IF(L70=0,T70,U70)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E70" t="str">
-        <f>IF(L70=0,U70,T70)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="F70" t="str">
-        <f>IF(AND(L70=0),"f",IF(AND(L70=1),"j",IF(AND(L70=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>j</v>
       </c>
       <c r="G70" t="str">
-        <f>IF(AND(V70=1,L70=0),"f",IF(AND(V70=1,L70=1),"j",IF(AND(V70=0,L70=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>j</v>
       </c>
       <c r="H70">
@@ -7795,19 +7800,19 @@
         <v>2</v>
       </c>
       <c r="R70">
-        <f>IF(L70=0,P70,Q70)</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="S70">
-        <f>IF(L70=0,Q70,P70)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="T70" t="str">
-        <f>CONCATENATE("images/choice_trial_",P70,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U70" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q70,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V70" s="6">
@@ -7817,24 +7822,24 @@
         <v>8</v>
       </c>
       <c r="X70" t="str">
-        <f>IF(V70=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y70">
         <v>1</v>
       </c>
-      <c r="Z70">
+      <c r="AA70">
         <v>35</v>
       </c>
-      <c r="AA70" t="str">
-        <f>IF(N70=N68,"REP2",IF(N70=N67,"REP3","."))</f>
+      <c r="AB70" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB70">
+      <c r="AC70">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7845,19 +7850,19 @@
         <v>14</v>
       </c>
       <c r="D71" t="str">
-        <f>IF(L71=0,T71,U71)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E71" t="str">
-        <f>IF(L71=0,U71,T71)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="F71" t="str">
-        <f>IF(AND(L71=0),"f",IF(AND(L71=1),"j",IF(AND(L71=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G71" t="str">
-        <f>IF(AND(V71=1,L71=0),"f",IF(AND(V71=1,L71=1),"j",IF(AND(V71=0,L71=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H71">
@@ -7891,19 +7896,19 @@
         <v>12</v>
       </c>
       <c r="R71">
-        <f>IF(L71=0,P71,Q71)</f>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="S71">
-        <f>IF(L71=0,Q71,P71)</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="T71" t="str">
-        <f>CONCATENATE("images/choice_trial_",P71,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U71" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q71,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V71">
@@ -7913,24 +7918,24 @@
         <v>8</v>
       </c>
       <c r="X71" t="str">
-        <f>IF(V71=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y71">
         <v>0</v>
       </c>
-      <c r="Z71">
+      <c r="AA71">
         <v>35</v>
       </c>
-      <c r="AA71" t="str">
-        <f>IF(N71=N69,"REP2",IF(N71=N68,"REP3","."))</f>
+      <c r="AB71" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB71">
+      <c r="AC71">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7941,19 +7946,19 @@
         <v>20</v>
       </c>
       <c r="D72" t="str">
-        <f>IF(L72=0,T72,U72)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E72" t="str">
-        <f>IF(L72=0,U72,T72)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F72" t="str">
-        <f>IF(AND(L72=0),"f",IF(AND(L72=1),"j",IF(AND(L72=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G72" t="str">
-        <f>IF(AND(V72=1,L72=0),"f",IF(AND(V72=1,L72=1),"j",IF(AND(V72=0,L72=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>j</v>
       </c>
       <c r="H72">
@@ -7987,19 +7992,19 @@
         <v>8</v>
       </c>
       <c r="R72">
-        <f>IF(L72=0,P72,Q72)</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="S72">
-        <f>IF(L72=0,Q72,P72)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="T72" t="str">
-        <f>CONCATENATE("images/choice_trial_",P72,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U72" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q72,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V72" s="6">
@@ -8009,24 +8014,24 @@
         <v>8</v>
       </c>
       <c r="X72" t="str">
-        <f>IF(V72=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>j</v>
       </c>
       <c r="Y72">
         <v>1</v>
       </c>
-      <c r="Z72">
+      <c r="AA72">
         <v>36</v>
       </c>
-      <c r="AA72" t="str">
-        <f>IF(N72=N70,"REP2",IF(N72=N69,"REP3","."))</f>
+      <c r="AB72" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB72">
+      <c r="AC72">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8037,19 +8042,19 @@
         <v>12</v>
       </c>
       <c r="D73" t="str">
-        <f>IF(L73=0,T73,U73)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E73" t="str">
-        <f>IF(L73=0,U73,T73)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F73" t="str">
-        <f>IF(AND(L73=0),"f",IF(AND(L73=1),"j",IF(AND(L73=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>j</v>
       </c>
       <c r="G73" t="str">
-        <f>IF(AND(V73=1,L73=0),"f",IF(AND(V73=1,L73=1),"j",IF(AND(V73=0,L73=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>j</v>
       </c>
       <c r="H73">
@@ -8083,19 +8088,19 @@
         <v>10</v>
       </c>
       <c r="R73">
-        <f>IF(L73=0,P73,Q73)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="S73">
-        <f>IF(L73=0,Q73,P73)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="T73" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",P73,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U73" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q73,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V73" s="13">
@@ -8105,24 +8110,24 @@
         <v>8</v>
       </c>
       <c r="X73" t="str">
-        <f>IF(V73=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y73">
         <v>0</v>
       </c>
-      <c r="Z73">
+      <c r="AA73">
         <v>36</v>
       </c>
-      <c r="AA73" t="str">
-        <f>IF(N73=N71,"REP2",IF(N73=N70,"REP3","."))</f>
+      <c r="AB73" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB73">
+      <c r="AC73">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8133,19 +8138,19 @@
         <v>10</v>
       </c>
       <c r="D74" t="str">
-        <f>IF(L74=0,T74,U74)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E74" t="str">
-        <f>IF(L74=0,U74,T74)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F74" t="str">
-        <f>IF(AND(L74=0),"f",IF(AND(L74=1),"j",IF(AND(L74=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>j</v>
       </c>
       <c r="G74" t="str">
-        <f>IF(AND(V74=1,L74=0),"f",IF(AND(V74=1,L74=1),"j",IF(AND(V74=0,L74=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>j</v>
       </c>
       <c r="H74">
@@ -8179,19 +8184,19 @@
         <v>14</v>
       </c>
       <c r="R74">
-        <f>IF(L74=0,P74,Q74)</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S74">
-        <f>IF(L74=0,Q74,P74)</f>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="T74" t="str">
-        <f>CONCATENATE("images/choice_trial_",P74,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U74" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q74,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V74">
@@ -8201,24 +8206,24 @@
         <v>8</v>
       </c>
       <c r="X74" t="str">
-        <f>IF(V74=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y74">
         <v>0</v>
       </c>
-      <c r="Z74">
+      <c r="AA74">
         <v>37</v>
       </c>
-      <c r="AA74" t="str">
-        <f>IF(N74=N72,"REP2",IF(N74=N71,"REP3","."))</f>
+      <c r="AB74" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB74">
+      <c r="AC74">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8229,19 +8234,19 @@
         <v>14</v>
       </c>
       <c r="D75" t="str">
-        <f>IF(L75=0,T75,U75)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="E75" t="str">
-        <f>IF(L75=0,U75,T75)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F75" t="str">
-        <f>IF(AND(L75=0),"f",IF(AND(L75=1),"j",IF(AND(L75=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>j</v>
       </c>
       <c r="G75" t="str">
-        <f>IF(AND(V75=1,L75=0),"f",IF(AND(V75=1,L75=1),"j",IF(AND(V75=0,L75=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>j</v>
       </c>
       <c r="H75">
@@ -8275,19 +8280,19 @@
         <v>12</v>
       </c>
       <c r="R75">
-        <f>IF(L75=0,P75,Q75)</f>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="S75">
-        <f>IF(L75=0,Q75,P75)</f>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="T75" t="str">
-        <f>CONCATENATE("images/choice_trial_",P75,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U75" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q75,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V75">
@@ -8297,24 +8302,24 @@
         <v>8</v>
       </c>
       <c r="X75" t="str">
-        <f>IF(V75=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y75">
         <v>0</v>
       </c>
-      <c r="Z75">
+      <c r="AA75">
         <v>38</v>
       </c>
-      <c r="AA75" t="str">
-        <f>IF(N75=N73,"REP2",IF(N75=N72,"REP3","."))</f>
+      <c r="AB75" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB75">
+      <c r="AC75">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8325,19 +8330,19 @@
         <v>20</v>
       </c>
       <c r="D76" t="str">
-        <f>IF(L76=0,T76,U76)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E76" t="str">
-        <f>IF(L76=0,U76,T76)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F76" t="str">
-        <f>IF(AND(L76=0),"f",IF(AND(L76=1),"j",IF(AND(L76=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>j</v>
       </c>
       <c r="G76" t="str">
-        <f>IF(AND(V76=1,L76=0),"f",IF(AND(V76=1,L76=1),"j",IF(AND(V76=0,L76=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>j</v>
       </c>
       <c r="H76">
@@ -8371,19 +8376,19 @@
         <v>8</v>
       </c>
       <c r="R76">
-        <f>IF(L76=0,P76,Q76)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="S76">
-        <f>IF(L76=0,Q76,P76)</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="T76" t="str">
-        <f>CONCATENATE("images/choice_trial_",P76,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U76" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q76,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V76" s="6">
@@ -8393,24 +8398,24 @@
         <v>8</v>
       </c>
       <c r="X76" t="str">
-        <f>IF(V76=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y76">
         <v>1</v>
       </c>
-      <c r="Z76">
+      <c r="AA76">
         <v>37</v>
       </c>
-      <c r="AA76" t="str">
-        <f>IF(N76=N74,"REP2",IF(N76=N73,"REP3","."))</f>
+      <c r="AB76" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB76">
+      <c r="AC76">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8421,19 +8426,19 @@
         <v>12</v>
       </c>
       <c r="D77" t="str">
-        <f>IF(L77=0,T77,U77)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E77" t="str">
-        <f>IF(L77=0,U77,T77)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F77" t="str">
-        <f>IF(AND(L77=0),"f",IF(AND(L77=1),"j",IF(AND(L77=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G77" t="str">
-        <f>IF(AND(V77=1,L77=0),"f",IF(AND(V77=1,L77=1),"j",IF(AND(V77=0,L77=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H77">
@@ -8467,19 +8472,19 @@
         <v>10</v>
       </c>
       <c r="R77">
-        <f>IF(L77=0,P77,Q77)</f>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="S77">
-        <f>IF(L77=0,Q77,P77)</f>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="T77" t="str">
-        <f>CONCATENATE("images/choice_trial_",P77,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U77" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q77,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V77">
@@ -8489,24 +8494,24 @@
         <v>8</v>
       </c>
       <c r="X77" t="str">
-        <f>IF(V77=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y77">
         <v>0</v>
       </c>
-      <c r="Z77">
+      <c r="AA77">
         <v>39</v>
       </c>
-      <c r="AA77" t="str">
-        <f>IF(N77=N75,"REP2",IF(N77=N74,"REP3","."))</f>
+      <c r="AB77" t="str">
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="AB77">
+      <c r="AC77">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8517,19 +8522,19 @@
         <v>22</v>
       </c>
       <c r="D78" t="str">
-        <f>IF(L78=0,T78,U78)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="E78" t="str">
-        <f>IF(L78=0,U78,T78)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F78" t="str">
-        <f>IF(AND(L78=0),"f",IF(AND(L78=1),"j",IF(AND(L78=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G78" t="str">
-        <f>IF(AND(V78=1,L78=0),"f",IF(AND(V78=1,L78=1),"j",IF(AND(V78=0,L78=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H78">
@@ -8563,19 +8568,19 @@
         <v>2</v>
       </c>
       <c r="R78">
-        <f>IF(L78=0,P78,Q78)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S78">
-        <f>IF(L78=0,Q78,P78)</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="T78" t="str">
-        <f>CONCATENATE("images/choice_trial_",P78,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U78" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q78,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V78" s="6">
@@ -8585,24 +8590,24 @@
         <v>8</v>
       </c>
       <c r="X78" t="str">
-        <f>IF(V78=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y78">
         <v>1</v>
       </c>
-      <c r="Z78">
+      <c r="AA78">
         <v>38</v>
       </c>
-      <c r="AA78" t="str">
-        <f>IF(N78=N76,"REP2",IF(N78=N75,"REP3","."))</f>
+      <c r="AB78" t="str">
+        <f t="shared" ref="AB78:AB109" si="29">IF(N78=N76,"REP2",IF(N78=N75,"REP3","."))</f>
         <v>.</v>
       </c>
-      <c r="AB78">
+      <c r="AC78">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8613,19 +8618,19 @@
         <v>7</v>
       </c>
       <c r="D79" t="str">
-        <f>IF(L79=0,T79,U79)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="E79" t="str">
-        <f>IF(L79=0,U79,T79)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F79" t="str">
-        <f>IF(AND(L79=0),"f",IF(AND(L79=1),"j",IF(AND(L79=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G79" t="str">
-        <f>IF(AND(V79=1,L79=0),"f",IF(AND(V79=1,L79=1),"j",IF(AND(V79=0,L79=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H79">
@@ -8659,19 +8664,19 @@
         <v>6</v>
       </c>
       <c r="R79">
-        <f>IF(L79=0,P79,Q79)</f>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="S79">
-        <f>IF(L79=0,Q79,P79)</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="T79" t="str">
-        <f>CONCATENATE("images/choice_trial_",P79,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U79" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q79,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V79" s="6">
@@ -8681,24 +8686,24 @@
         <v>8</v>
       </c>
       <c r="X79" t="str">
-        <f>IF(V79=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y79">
         <v>1</v>
       </c>
-      <c r="Z79">
+      <c r="AA79">
         <v>39</v>
       </c>
-      <c r="AA79" t="str">
-        <f>IF(N79=N77,"REP2",IF(N79=N76,"REP3","."))</f>
+      <c r="AB79" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB79">
+      <c r="AC79">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8709,19 +8714,19 @@
         <v>14</v>
       </c>
       <c r="D80" t="str">
-        <f>IF(L80=0,T80,U80)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E80" t="str">
-        <f>IF(L80=0,U80,T80)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="F80" t="str">
-        <f>IF(AND(L80=0),"f",IF(AND(L80=1),"j",IF(AND(L80=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G80" t="str">
-        <f>IF(AND(V80=1,L80=0),"f",IF(AND(V80=1,L80=1),"j",IF(AND(V80=0,L80=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H80">
@@ -8755,19 +8760,19 @@
         <v>12</v>
       </c>
       <c r="R80">
-        <f>IF(L80=0,P80,Q80)</f>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="S80">
-        <f>IF(L80=0,Q80,P80)</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="T80" t="str">
-        <f>CONCATENATE("images/choice_trial_",P80,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U80" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q80,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V80">
@@ -8777,24 +8782,24 @@
         <v>8</v>
       </c>
       <c r="X80" t="str">
-        <f>IF(V80=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y80">
         <v>0</v>
       </c>
-      <c r="Z80">
+      <c r="AA80">
         <v>40</v>
       </c>
-      <c r="AA80" t="str">
-        <f>IF(N80=N78,"REP2",IF(N80=N77,"REP3","."))</f>
+      <c r="AB80" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB80">
+      <c r="AC80">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8805,19 +8810,19 @@
         <v>10</v>
       </c>
       <c r="D81" t="str">
-        <f>IF(L81=0,T81,U81)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E81" t="str">
-        <f>IF(L81=0,U81,T81)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F81" t="str">
-        <f>IF(AND(L81=0),"f",IF(AND(L81=1),"j",IF(AND(L81=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G81" t="str">
-        <f>IF(AND(V81=1,L81=0),"f",IF(AND(V81=1,L81=1),"j",IF(AND(V81=0,L81=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H81">
@@ -8851,19 +8856,19 @@
         <v>14</v>
       </c>
       <c r="R81">
-        <f>IF(L81=0,P81,Q81)</f>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="S81">
-        <f>IF(L81=0,Q81,P81)</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="T81" t="str">
-        <f>CONCATENATE("images/choice_trial_",P81,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U81" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q81,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V81">
@@ -8873,24 +8878,24 @@
         <v>8</v>
       </c>
       <c r="X81" t="str">
-        <f>IF(V81=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y81">
         <v>0</v>
       </c>
-      <c r="Z81">
+      <c r="AA81">
         <v>42</v>
       </c>
-      <c r="AA81" t="str">
-        <f>IF(N81=N79,"REP2",IF(N81=N78,"REP3","."))</f>
+      <c r="AB81" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB81">
+      <c r="AC81">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8901,19 +8906,19 @@
         <v>22</v>
       </c>
       <c r="D82" t="str">
-        <f>IF(L82=0,T82,U82)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E82" t="str">
-        <f>IF(L82=0,U82,T82)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="F82" t="str">
-        <f>IF(AND(L82=0),"f",IF(AND(L82=1),"j",IF(AND(L82=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>j</v>
       </c>
       <c r="G82" t="str">
-        <f>IF(AND(V82=1,L82=0),"f",IF(AND(V82=1,L82=1),"j",IF(AND(V82=0,L82=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H82">
@@ -8947,19 +8952,19 @@
         <v>2</v>
       </c>
       <c r="R82">
-        <f>IF(L82=0,P82,Q82)</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="S82">
-        <f>IF(L82=0,Q82,P82)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="T82" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",P82,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U82" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q82,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V82" s="12">
@@ -8969,24 +8974,24 @@
         <v>8</v>
       </c>
       <c r="X82" t="str">
-        <f>IF(V82=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>j</v>
       </c>
       <c r="Y82">
         <v>1</v>
       </c>
-      <c r="Z82">
+      <c r="AA82">
         <v>40</v>
       </c>
-      <c r="AA82" t="str">
-        <f>IF(N82=N80,"REP2",IF(N82=N79,"REP3","."))</f>
+      <c r="AB82" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB82">
+      <c r="AC82">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8997,19 +9002,19 @@
         <v>20</v>
       </c>
       <c r="D83" t="str">
-        <f>IF(L83=0,T83,U83)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E83" t="str">
-        <f>IF(L83=0,U83,T83)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F83" t="str">
-        <f>IF(AND(L83=0),"f",IF(AND(L83=1),"j",IF(AND(L83=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G83" t="str">
-        <f>IF(AND(V83=1,L83=0),"f",IF(AND(V83=1,L83=1),"j",IF(AND(V83=0,L83=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H83">
@@ -9043,19 +9048,19 @@
         <v>8</v>
       </c>
       <c r="R83">
-        <f>IF(L83=0,P83,Q83)</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="S83">
-        <f>IF(L83=0,Q83,P83)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="T83" t="str">
-        <f>CONCATENATE("images/choice_trial_",P83,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U83" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q83,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V83" s="6">
@@ -9065,24 +9070,24 @@
         <v>8</v>
       </c>
       <c r="X83" t="str">
-        <f>IF(V83=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y83">
         <v>1</v>
       </c>
-      <c r="Z83">
+      <c r="AA83">
         <v>41</v>
       </c>
-      <c r="AA83" t="str">
-        <f>IF(N83=N81,"REP2",IF(N83=N80,"REP3","."))</f>
+      <c r="AB83" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB83">
+      <c r="AC83">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9093,19 +9098,19 @@
         <v>12</v>
       </c>
       <c r="D84" t="str">
-        <f>IF(L84=0,T84,U84)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E84" t="str">
-        <f>IF(L84=0,U84,T84)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F84" t="str">
-        <f>IF(AND(L84=0),"f",IF(AND(L84=1),"j",IF(AND(L84=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G84" t="str">
-        <f>IF(AND(V84=1,L84=0),"f",IF(AND(V84=1,L84=1),"j",IF(AND(V84=0,L84=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>j</v>
       </c>
       <c r="H84">
@@ -9139,19 +9144,19 @@
         <v>10</v>
       </c>
       <c r="R84">
-        <f>IF(L84=0,P84,Q84)</f>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="S84">
-        <f>IF(L84=0,Q84,P84)</f>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="T84" t="str">
-        <f>CONCATENATE("images/choice_trial_",P84,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U84" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q84,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V84">
@@ -9161,24 +9166,24 @@
         <v>8</v>
       </c>
       <c r="X84" t="str">
-        <f>IF(V84=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>j</v>
       </c>
       <c r="Y84">
         <v>0</v>
       </c>
-      <c r="Z84">
+      <c r="AA84">
         <v>41</v>
       </c>
-      <c r="AA84" t="str">
-        <f>IF(N84=N82,"REP2",IF(N84=N81,"REP3","."))</f>
+      <c r="AB84" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB84">
+      <c r="AC84">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9189,19 +9194,19 @@
         <v>7</v>
       </c>
       <c r="D85" t="str">
-        <f>IF(L85=0,T85,U85)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E85" t="str">
-        <f>IF(L85=0,U85,T85)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="F85" t="str">
-        <f>IF(AND(L85=0),"f",IF(AND(L85=1),"j",IF(AND(L85=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>j</v>
       </c>
       <c r="G85" t="str">
-        <f>IF(AND(V85=1,L85=0),"f",IF(AND(V85=1,L85=1),"j",IF(AND(V85=0,L85=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H85">
@@ -9235,19 +9240,19 @@
         <v>6</v>
       </c>
       <c r="R85">
-        <f>IF(L85=0,P85,Q85)</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="S85">
-        <f>IF(L85=0,Q85,P85)</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="T85" t="str">
-        <f>CONCATENATE("images/choice_trial_",P85,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U85" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q85,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V85" s="6">
@@ -9257,24 +9262,24 @@
         <v>8</v>
       </c>
       <c r="X85" t="str">
-        <f>IF(V85=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>j</v>
       </c>
       <c r="Y85">
         <v>1</v>
       </c>
-      <c r="Z85">
+      <c r="AA85">
         <v>42</v>
       </c>
-      <c r="AA85" t="str">
-        <f>IF(N85=N83,"REP2",IF(N85=N82,"REP3","."))</f>
+      <c r="AB85" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB85">
+      <c r="AC85">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9285,19 +9290,19 @@
         <v>14</v>
       </c>
       <c r="D86" t="str">
-        <f>IF(L86=0,T86,U86)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="E86" t="str">
-        <f>IF(L86=0,U86,T86)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F86" t="str">
-        <f>IF(AND(L86=0),"f",IF(AND(L86=1),"j",IF(AND(L86=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>j</v>
       </c>
       <c r="G86" t="str">
-        <f>IF(AND(V86=1,L86=0),"f",IF(AND(V86=1,L86=1),"j",IF(AND(V86=0,L86=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H86">
@@ -9331,19 +9336,19 @@
         <v>12</v>
       </c>
       <c r="R86">
-        <f>IF(L86=0,P86,Q86)</f>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="S86">
-        <f>IF(L86=0,Q86,P86)</f>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="T86" t="str">
-        <f>CONCATENATE("images/choice_trial_",P86,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U86" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q86,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V86">
@@ -9353,24 +9358,24 @@
         <v>8</v>
       </c>
       <c r="X86" t="str">
-        <f>IF(V86=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>j</v>
       </c>
       <c r="Y86">
         <v>0</v>
       </c>
-      <c r="Z86">
+      <c r="AA86">
         <v>43</v>
       </c>
-      <c r="AA86" t="str">
-        <f>IF(N86=N84,"REP2",IF(N86=N83,"REP3","."))</f>
+      <c r="AB86" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB86">
+      <c r="AC86">
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9381,19 +9386,19 @@
         <v>20</v>
       </c>
       <c r="D87" t="str">
-        <f>IF(L87=0,T87,U87)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E87" t="str">
-        <f>IF(L87=0,U87,T87)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F87" t="str">
-        <f>IF(AND(L87=0),"f",IF(AND(L87=1),"j",IF(AND(L87=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>j</v>
       </c>
       <c r="G87" t="str">
-        <f>IF(AND(V87=1,L87=0),"f",IF(AND(V87=1,L87=1),"j",IF(AND(V87=0,L87=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>j</v>
       </c>
       <c r="H87">
@@ -9427,19 +9432,19 @@
         <v>8</v>
       </c>
       <c r="R87">
-        <f>IF(L87=0,P87,Q87)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="S87">
-        <f>IF(L87=0,Q87,P87)</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="T87" t="str">
-        <f>CONCATENATE("images/choice_trial_",P87,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U87" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q87,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V87" s="6">
@@ -9449,24 +9454,24 @@
         <v>8</v>
       </c>
       <c r="X87" t="str">
-        <f>IF(V87=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y87">
         <v>1</v>
       </c>
-      <c r="Z87">
+      <c r="AA87">
         <v>43</v>
       </c>
-      <c r="AA87" t="str">
-        <f>IF(N87=N85,"REP2",IF(N87=N84,"REP3","."))</f>
+      <c r="AB87" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB87">
+      <c r="AC87">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9477,19 +9482,19 @@
         <v>10</v>
       </c>
       <c r="D88" t="str">
-        <f>IF(L88=0,T88,U88)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E88" t="str">
-        <f>IF(L88=0,U88,T88)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F88" t="str">
-        <f>IF(AND(L88=0),"f",IF(AND(L88=1),"j",IF(AND(L88=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G88" t="str">
-        <f>IF(AND(V88=1,L88=0),"f",IF(AND(V88=1,L88=1),"j",IF(AND(V88=0,L88=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H88">
@@ -9523,19 +9528,19 @@
         <v>14</v>
       </c>
       <c r="R88">
-        <f>IF(L88=0,P88,Q88)</f>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="S88">
-        <f>IF(L88=0,Q88,P88)</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="T88" t="str">
-        <f>CONCATENATE("images/choice_trial_",P88,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U88" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q88,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V88">
@@ -9545,24 +9550,24 @@
         <v>8</v>
       </c>
       <c r="X88" t="str">
-        <f>IF(V88=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y88">
         <v>0</v>
       </c>
-      <c r="Z88">
+      <c r="AA88">
         <v>44</v>
       </c>
-      <c r="AA88" t="str">
-        <f>IF(N88=N86,"REP2",IF(N88=N85,"REP3","."))</f>
+      <c r="AB88" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB88">
+      <c r="AC88">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9573,19 +9578,19 @@
         <v>7</v>
       </c>
       <c r="D89" t="str">
-        <f>IF(L89=0,T89,U89)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="E89" t="str">
-        <f>IF(L89=0,U89,T89)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F89" t="str">
-        <f>IF(AND(L89=0),"f",IF(AND(L89=1),"j",IF(AND(L89=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G89" t="str">
-        <f>IF(AND(V89=1,L89=0),"f",IF(AND(V89=1,L89=1),"j",IF(AND(V89=0,L89=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H89">
@@ -9619,19 +9624,19 @@
         <v>6</v>
       </c>
       <c r="R89">
-        <f>IF(L89=0,P89,Q89)</f>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="S89">
-        <f>IF(L89=0,Q89,P89)</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="T89" t="str">
-        <f>CONCATENATE("images/choice_trial_",P89,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U89" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q89,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V89" s="6">
@@ -9641,24 +9646,24 @@
         <v>8</v>
       </c>
       <c r="X89" t="str">
-        <f>IF(V89=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y89">
         <v>1</v>
       </c>
-      <c r="Z89">
+      <c r="AA89">
         <v>44</v>
       </c>
-      <c r="AA89" t="str">
-        <f>IF(N89=N87,"REP2",IF(N89=N86,"REP3","."))</f>
+      <c r="AB89" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB89">
+      <c r="AC89">
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9669,19 +9674,19 @@
         <v>12</v>
       </c>
       <c r="D90" t="str">
-        <f>IF(L90=0,T90,U90)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E90" t="str">
-        <f>IF(L90=0,U90,T90)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F90" t="str">
-        <f>IF(AND(L90=0),"f",IF(AND(L90=1),"j",IF(AND(L90=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>j</v>
       </c>
       <c r="G90" t="str">
-        <f>IF(AND(V90=1,L90=0),"f",IF(AND(V90=1,L90=1),"j",IF(AND(V90=0,L90=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>j</v>
       </c>
       <c r="H90">
@@ -9715,19 +9720,19 @@
         <v>10</v>
       </c>
       <c r="R90">
-        <f>IF(L90=0,P90,Q90)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="S90">
-        <f>IF(L90=0,Q90,P90)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="T90" t="str">
-        <f>CONCATENATE("images/choice_trial_",P90,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U90" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q90,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V90">
@@ -9737,24 +9742,24 @@
         <v>8</v>
       </c>
       <c r="X90" t="str">
-        <f>IF(V90=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y90">
         <v>0</v>
       </c>
-      <c r="Z90">
+      <c r="AA90">
         <v>45</v>
       </c>
-      <c r="AA90" t="str">
-        <f>IF(N90=N88,"REP2",IF(N90=N87,"REP3","."))</f>
+      <c r="AB90" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB90">
+      <c r="AC90">
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9765,19 +9770,19 @@
         <v>22</v>
       </c>
       <c r="D91" t="str">
-        <f>IF(L91=0,T91,U91)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="E91" t="str">
-        <f>IF(L91=0,U91,T91)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F91" t="str">
-        <f>IF(AND(L91=0),"f",IF(AND(L91=1),"j",IF(AND(L91=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G91" t="str">
-        <f>IF(AND(V91=1,L91=0),"f",IF(AND(V91=1,L91=1),"j",IF(AND(V91=0,L91=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>j</v>
       </c>
       <c r="H91">
@@ -9811,19 +9816,19 @@
         <v>2</v>
       </c>
       <c r="R91">
-        <f>IF(L91=0,P91,Q91)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S91">
-        <f>IF(L91=0,Q91,P91)</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="T91" t="str">
-        <f>CONCATENATE("images/choice_trial_",P91,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U91" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q91,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V91" s="6">
@@ -9833,24 +9838,24 @@
         <v>8</v>
       </c>
       <c r="X91" t="str">
-        <f>IF(V91=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>j</v>
       </c>
       <c r="Y91">
         <v>1</v>
       </c>
-      <c r="Z91">
+      <c r="AA91">
         <v>45</v>
       </c>
-      <c r="AA91" t="str">
-        <f>IF(N91=N89,"REP2",IF(N91=N88,"REP3","."))</f>
+      <c r="AB91" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB91">
+      <c r="AC91">
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9861,19 +9866,19 @@
         <v>20</v>
       </c>
       <c r="D92" t="str">
-        <f>IF(L92=0,T92,U92)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E92" t="str">
-        <f>IF(L92=0,U92,T92)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F92" t="str">
-        <f>IF(AND(L92=0),"f",IF(AND(L92=1),"j",IF(AND(L92=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G92" t="str">
-        <f>IF(AND(V92=1,L92=0),"f",IF(AND(V92=1,L92=1),"j",IF(AND(V92=0,L92=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H92">
@@ -9907,19 +9912,19 @@
         <v>8</v>
       </c>
       <c r="R92">
-        <f>IF(L92=0,P92,Q92)</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="S92">
-        <f>IF(L92=0,Q92,P92)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="T92" t="str">
-        <f>CONCATENATE("images/choice_trial_",P92,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U92" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q92,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V92" s="6">
@@ -9929,24 +9934,24 @@
         <v>8</v>
       </c>
       <c r="X92" t="str">
-        <f>IF(V92=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y92">
         <v>1</v>
       </c>
-      <c r="Z92">
+      <c r="AA92">
         <v>46</v>
       </c>
-      <c r="AA92" t="str">
-        <f>IF(N92=N90,"REP2",IF(N92=N89,"REP3","."))</f>
+      <c r="AB92" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB92">
+      <c r="AC92">
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9957,19 +9962,19 @@
         <v>10</v>
       </c>
       <c r="D93" t="str">
-        <f>IF(L93=0,T93,U93)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E93" t="str">
-        <f>IF(L93=0,U93,T93)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F93" t="str">
-        <f>IF(AND(L93=0),"f",IF(AND(L93=1),"j",IF(AND(L93=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G93" t="str">
-        <f>IF(AND(V93=1,L93=0),"f",IF(AND(V93=1,L93=1),"j",IF(AND(V93=0,L93=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>j</v>
       </c>
       <c r="H93">
@@ -10003,19 +10008,19 @@
         <v>14</v>
       </c>
       <c r="R93">
-        <f>IF(L93=0,P93,Q93)</f>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="S93">
-        <f>IF(L93=0,Q93,P93)</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="T93" t="str">
-        <f>CONCATENATE("images/choice_trial_",P93,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U93" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q93,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V93">
@@ -10025,24 +10030,24 @@
         <v>8</v>
       </c>
       <c r="X93" t="str">
-        <f>IF(V93=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>j</v>
       </c>
       <c r="Y93">
         <v>0</v>
       </c>
-      <c r="Z93">
+      <c r="AA93">
         <v>46</v>
       </c>
-      <c r="AA93" t="str">
-        <f>IF(N93=N91,"REP2",IF(N93=N90,"REP3","."))</f>
+      <c r="AB93" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB93">
+      <c r="AC93">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -10053,19 +10058,19 @@
         <v>12</v>
       </c>
       <c r="D94" t="str">
-        <f>IF(L94=0,T94,U94)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E94" t="str">
-        <f>IF(L94=0,U94,T94)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F94" t="str">
-        <f>IF(AND(L94=0),"f",IF(AND(L94=1),"j",IF(AND(L94=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>j</v>
       </c>
       <c r="G94" t="str">
-        <f>IF(AND(V94=1,L94=0),"f",IF(AND(V94=1,L94=1),"j",IF(AND(V94=0,L94=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>j</v>
       </c>
       <c r="H94">
@@ -10099,19 +10104,19 @@
         <v>10</v>
       </c>
       <c r="R94">
-        <f>IF(L94=0,P94,Q94)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="S94">
-        <f>IF(L94=0,Q94,P94)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="T94" t="str">
-        <f>CONCATENATE("images/choice_trial_",P94,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U94" s="14" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q94,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V94" s="5">
@@ -10121,24 +10126,25 @@
         <v>8</v>
       </c>
       <c r="X94" s="5" t="str">
-        <f>IF(V94=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y94" s="5">
         <v>0</v>
       </c>
-      <c r="Z94" s="5">
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5">
         <v>47</v>
       </c>
-      <c r="AA94" t="str">
-        <f>IF(N94=N92,"REP2",IF(N94=N91,"REP3","."))</f>
+      <c r="AB94" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB94" s="5">
+      <c r="AC94" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -10149,19 +10155,19 @@
         <v>14</v>
       </c>
       <c r="D95" t="str">
-        <f>IF(L95=0,T95,U95)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="E95" t="str">
-        <f>IF(L95=0,U95,T95)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F95" t="str">
-        <f>IF(AND(L95=0),"f",IF(AND(L95=1),"j",IF(AND(L95=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>j</v>
       </c>
       <c r="G95" t="str">
-        <f>IF(AND(V95=1,L95=0),"f",IF(AND(V95=1,L95=1),"j",IF(AND(V95=0,L95=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H95">
@@ -10195,19 +10201,19 @@
         <v>12</v>
       </c>
       <c r="R95">
-        <f>IF(L95=0,P95,Q95)</f>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="S95">
-        <f>IF(L95=0,Q95,P95)</f>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="T95" t="str">
-        <f>CONCATENATE("images/choice_trial_",P95,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U95" s="15" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q95,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V95" s="5">
@@ -10217,24 +10223,25 @@
         <v>8</v>
       </c>
       <c r="X95" s="5" t="str">
-        <f>IF(V95=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>j</v>
       </c>
       <c r="Y95" s="5">
         <v>0</v>
       </c>
-      <c r="Z95" s="5">
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5">
         <v>48</v>
       </c>
-      <c r="AA95" t="str">
-        <f>IF(N95=N93,"REP2",IF(N95=N92,"REP3","."))</f>
+      <c r="AB95" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB95" s="5">
+      <c r="AC95" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10245,19 +10252,19 @@
         <v>7</v>
       </c>
       <c r="D96" t="str">
-        <f>IF(L96=0,T96,U96)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="E96" t="str">
-        <f>IF(L96=0,U96,T96)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F96" t="str">
-        <f>IF(AND(L96=0),"f",IF(AND(L96=1),"j",IF(AND(L96=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G96" t="str">
-        <f>IF(AND(V96=1,L96=0),"f",IF(AND(V96=1,L96=1),"j",IF(AND(V96=0,L96=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>j</v>
       </c>
       <c r="H96">
@@ -10291,19 +10298,19 @@
         <v>6</v>
       </c>
       <c r="R96">
-        <f>IF(L96=0,P96,Q96)</f>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="S96">
-        <f>IF(L96=0,Q96,P96)</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="T96" t="str">
-        <f>CONCATENATE("images/choice_trial_",P96,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U96" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q96,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V96" s="6">
@@ -10313,24 +10320,24 @@
         <v>8</v>
       </c>
       <c r="X96" t="str">
-        <f>IF(V96=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>j</v>
       </c>
       <c r="Y96">
         <v>1</v>
       </c>
-      <c r="Z96">
+      <c r="AA96">
         <v>47</v>
       </c>
-      <c r="AA96" t="str">
-        <f>IF(N96=N94,"REP2",IF(N96=N93,"REP3","."))</f>
+      <c r="AB96" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB96">
+      <c r="AC96">
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10341,19 +10348,19 @@
         <v>22</v>
       </c>
       <c r="D97" t="str">
-        <f>IF(L97=0,T97,U97)</f>
+        <f t="shared" si="20"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="E97" t="str">
-        <f>IF(L97=0,U97,T97)</f>
+        <f t="shared" si="21"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F97" t="str">
-        <f>IF(AND(L97=0),"f",IF(AND(L97=1),"j",IF(AND(L97=0),"j","f")))</f>
+        <f t="shared" si="22"/>
         <v>f</v>
       </c>
       <c r="G97" t="str">
-        <f>IF(AND(V97=1,L97=0),"f",IF(AND(V97=1,L97=1),"j",IF(AND(V97=0,L97=0),"j","f")))</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="H97">
@@ -10387,19 +10394,19 @@
         <v>2</v>
       </c>
       <c r="R97">
-        <f>IF(L97=0,P97,Q97)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S97">
-        <f>IF(L97=0,Q97,P97)</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="T97" t="str">
-        <f>CONCATENATE("images/choice_trial_",P97,".png")</f>
+        <f t="shared" si="26"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U97" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q97,".png")</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V97" s="6">
@@ -10409,24 +10416,24 @@
         <v>8</v>
       </c>
       <c r="X97" t="str">
-        <f>IF(V97=1,"f","j")</f>
+        <f t="shared" si="28"/>
         <v>f</v>
       </c>
       <c r="Y97">
         <v>1</v>
       </c>
-      <c r="Z97">
+      <c r="AA97">
         <v>48</v>
       </c>
-      <c r="AA97" t="str">
-        <f>IF(N97=N95,"REP2",IF(N97=N94,"REP3","."))</f>
+      <c r="AB97" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB97">
+      <c r="AC97">
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10437,19 +10444,19 @@
         <v>10</v>
       </c>
       <c r="D98" t="str">
-        <f>IF(L98=0,T98,U98)</f>
+        <f t="shared" ref="D98:D109" si="30">IF(L98=0,T98,U98)</f>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E98" t="str">
-        <f>IF(L98=0,U98,T98)</f>
+        <f t="shared" ref="E98:E109" si="31">IF(L98=0,U98,T98)</f>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F98" t="str">
-        <f>IF(AND(L98=0),"f",IF(AND(L98=1),"j",IF(AND(L98=0),"j","f")))</f>
+        <f t="shared" ref="F98:F109" si="32">IF(AND(L98=0),"f",IF(AND(L98=1),"j",IF(AND(L98=0),"j","f")))</f>
         <v>j</v>
       </c>
       <c r="G98" t="str">
-        <f>IF(AND(V98=1,L98=0),"f",IF(AND(V98=1,L98=1),"j",IF(AND(V98=0,L98=0),"j","f")))</f>
+        <f t="shared" ref="G98:G109" si="33">IF(AND(V98=1,L98=0),"f",IF(AND(V98=1,L98=1),"j",IF(AND(V98=0,L98=0),"j","f")))</f>
         <v>j</v>
       </c>
       <c r="H98">
@@ -10483,19 +10490,19 @@
         <v>14</v>
       </c>
       <c r="R98">
-        <f>IF(L98=0,P98,Q98)</f>
+        <f t="shared" ref="R98:R129" si="34">IF(L98=0,P98,Q98)</f>
         <v>14</v>
       </c>
       <c r="S98">
-        <f>IF(L98=0,Q98,P98)</f>
+        <f t="shared" ref="S98:S109" si="35">IF(L98=0,Q98,P98)</f>
         <v>13</v>
       </c>
       <c r="T98" t="str">
-        <f>CONCATENATE("images/choice_trial_",P98,".png")</f>
+        <f t="shared" ref="T98:T109" si="36">CONCATENATE("images/choice_trial_",P98,".png")</f>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U98" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q98,".png")</f>
+        <f t="shared" ref="U98:U109" si="37">CONCATENATE("images/choice_trial_",Q98,".png")</f>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V98" s="3">
@@ -10505,24 +10512,24 @@
         <v>8</v>
       </c>
       <c r="X98" t="str">
-        <f>IF(V98=1,"f","j")</f>
+        <f t="shared" ref="X98:X109" si="38">IF(V98=1,"f","j")</f>
         <v>f</v>
       </c>
       <c r="Y98">
         <v>0</v>
       </c>
-      <c r="Z98">
+      <c r="AA98">
         <v>49</v>
       </c>
-      <c r="AA98" t="str">
-        <f>IF(N98=N96,"REP2",IF(N98=N95,"REP3","."))</f>
+      <c r="AB98" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB98">
+      <c r="AC98">
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10533,19 +10540,19 @@
         <v>14</v>
       </c>
       <c r="D99" t="str">
-        <f>IF(L99=0,T99,U99)</f>
+        <f t="shared" si="30"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E99" t="str">
-        <f>IF(L99=0,U99,T99)</f>
+        <f t="shared" si="31"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="F99" t="str">
-        <f>IF(AND(L99=0),"f",IF(AND(L99=1),"j",IF(AND(L99=0),"j","f")))</f>
+        <f t="shared" si="32"/>
         <v>f</v>
       </c>
       <c r="G99" t="str">
-        <f>IF(AND(V99=1,L99=0),"f",IF(AND(V99=1,L99=1),"j",IF(AND(V99=0,L99=0),"j","f")))</f>
+        <f t="shared" si="33"/>
         <v>f</v>
       </c>
       <c r="H99">
@@ -10579,19 +10586,19 @@
         <v>12</v>
       </c>
       <c r="R99">
-        <f>IF(L99=0,P99,Q99)</f>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="S99">
-        <f>IF(L99=0,Q99,P99)</f>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="T99" t="str">
-        <f>CONCATENATE("images/choice_trial_",P99,".png")</f>
+        <f t="shared" si="36"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U99" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q99,".png")</f>
+        <f t="shared" si="37"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V99">
@@ -10601,24 +10608,24 @@
         <v>8</v>
       </c>
       <c r="X99" t="str">
-        <f>IF(V99=1,"f","j")</f>
+        <f t="shared" si="38"/>
         <v>f</v>
       </c>
       <c r="Y99">
         <v>0</v>
       </c>
-      <c r="Z99">
+      <c r="AA99">
         <v>50</v>
       </c>
-      <c r="AA99" t="str">
-        <f>IF(N99=N97,"REP2",IF(N99=N96,"REP3","."))</f>
+      <c r="AB99" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB99">
+      <c r="AC99">
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10629,19 +10636,19 @@
         <v>20</v>
       </c>
       <c r="D100" t="str">
-        <f>IF(L100=0,T100,U100)</f>
+        <f t="shared" si="30"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E100" t="str">
-        <f>IF(L100=0,U100,T100)</f>
+        <f t="shared" si="31"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F100" t="str">
-        <f>IF(AND(L100=0),"f",IF(AND(L100=1),"j",IF(AND(L100=0),"j","f")))</f>
+        <f t="shared" si="32"/>
         <v>j</v>
       </c>
       <c r="G100" t="str">
-        <f>IF(AND(V100=1,L100=0),"f",IF(AND(V100=1,L100=1),"j",IF(AND(V100=0,L100=0),"j","f")))</f>
+        <f t="shared" si="33"/>
         <v>j</v>
       </c>
       <c r="H100">
@@ -10675,19 +10682,19 @@
         <v>8</v>
       </c>
       <c r="R100">
-        <f>IF(L100=0,P100,Q100)</f>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="S100">
-        <f>IF(L100=0,Q100,P100)</f>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="T100" t="str">
-        <f>CONCATENATE("images/choice_trial_",P100,".png")</f>
+        <f t="shared" si="36"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U100" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q100,".png")</f>
+        <f t="shared" si="37"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V100" s="6">
@@ -10697,24 +10704,24 @@
         <v>8</v>
       </c>
       <c r="X100" t="str">
-        <f>IF(V100=1,"f","j")</f>
+        <f t="shared" si="38"/>
         <v>f</v>
       </c>
       <c r="Y100">
         <v>1</v>
       </c>
-      <c r="Z100">
+      <c r="AA100">
         <v>49</v>
       </c>
-      <c r="AA100" t="str">
-        <f>IF(N100=N98,"REP2",IF(N100=N97,"REP3","."))</f>
+      <c r="AB100" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB100">
+      <c r="AC100">
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10725,19 +10732,19 @@
         <v>12</v>
       </c>
       <c r="D101" t="str">
-        <f>IF(L101=0,T101,U101)</f>
+        <f t="shared" si="30"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E101" t="str">
-        <f>IF(L101=0,U101,T101)</f>
+        <f t="shared" si="31"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F101" t="str">
-        <f>IF(AND(L101=0),"f",IF(AND(L101=1),"j",IF(AND(L101=0),"j","f")))</f>
+        <f t="shared" si="32"/>
         <v>f</v>
       </c>
       <c r="G101" t="str">
-        <f>IF(AND(V101=1,L101=0),"f",IF(AND(V101=1,L101=1),"j",IF(AND(V101=0,L101=0),"j","f")))</f>
+        <f t="shared" si="33"/>
         <v>j</v>
       </c>
       <c r="H101">
@@ -10771,19 +10778,19 @@
         <v>10</v>
       </c>
       <c r="R101">
-        <f>IF(L101=0,P101,Q101)</f>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="S101">
-        <f>IF(L101=0,Q101,P101)</f>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="T101" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",P101,".png")</f>
+        <f t="shared" si="36"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U101" s="5" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q101,".png")</f>
+        <f t="shared" si="37"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V101" s="13">
@@ -10793,24 +10800,24 @@
         <v>8</v>
       </c>
       <c r="X101" t="str">
-        <f>IF(V101=1,"f","j")</f>
+        <f t="shared" si="38"/>
         <v>j</v>
       </c>
       <c r="Y101">
         <v>0</v>
       </c>
-      <c r="Z101">
+      <c r="AA101">
         <v>51</v>
       </c>
-      <c r="AA101" t="str">
-        <f>IF(N101=N99,"REP2",IF(N101=N98,"REP3","."))</f>
+      <c r="AB101" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB101">
+      <c r="AC101">
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10821,19 +10828,19 @@
         <v>22</v>
       </c>
       <c r="D102" t="str">
-        <f>IF(L102=0,T102,U102)</f>
+        <f t="shared" si="30"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E102" t="str">
-        <f>IF(L102=0,U102,T102)</f>
+        <f t="shared" si="31"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="F102" t="str">
-        <f>IF(AND(L102=0),"f",IF(AND(L102=1),"j",IF(AND(L102=0),"j","f")))</f>
+        <f t="shared" si="32"/>
         <v>j</v>
       </c>
       <c r="G102" t="str">
-        <f>IF(AND(V102=1,L102=0),"f",IF(AND(V102=1,L102=1),"j",IF(AND(V102=0,L102=0),"j","f")))</f>
+        <f t="shared" si="33"/>
         <v>j</v>
       </c>
       <c r="H102">
@@ -10867,19 +10874,19 @@
         <v>2</v>
       </c>
       <c r="R102">
-        <f>IF(L102=0,P102,Q102)</f>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="S102">
-        <f>IF(L102=0,Q102,P102)</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="T102" t="str">
-        <f>CONCATENATE("images/choice_trial_",P102,".png")</f>
+        <f t="shared" si="36"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U102" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q102,".png")</f>
+        <f t="shared" si="37"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V102" s="6">
@@ -10889,24 +10896,24 @@
         <v>8</v>
       </c>
       <c r="X102" t="str">
-        <f>IF(V102=1,"f","j")</f>
+        <f t="shared" si="38"/>
         <v>f</v>
       </c>
       <c r="Y102">
         <v>1</v>
       </c>
-      <c r="Z102">
+      <c r="AA102">
         <v>50</v>
       </c>
-      <c r="AA102" t="str">
-        <f>IF(N102=N100,"REP2",IF(N102=N99,"REP3","."))</f>
+      <c r="AB102" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB102">
+      <c r="AC102">
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10917,19 +10924,19 @@
         <v>7</v>
       </c>
       <c r="D103" t="str">
-        <f>IF(L103=0,T103,U103)</f>
+        <f t="shared" si="30"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="E103" t="str">
-        <f>IF(L103=0,U103,T103)</f>
+        <f t="shared" si="31"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F103" t="str">
-        <f>IF(AND(L103=0),"f",IF(AND(L103=1),"j",IF(AND(L103=0),"j","f")))</f>
+        <f t="shared" si="32"/>
         <v>f</v>
       </c>
       <c r="G103" t="str">
-        <f>IF(AND(V103=1,L103=0),"f",IF(AND(V103=1,L103=1),"j",IF(AND(V103=0,L103=0),"j","f")))</f>
+        <f t="shared" si="33"/>
         <v>f</v>
       </c>
       <c r="H103">
@@ -10963,19 +10970,19 @@
         <v>6</v>
       </c>
       <c r="R103">
-        <f>IF(L103=0,P103,Q103)</f>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="S103">
-        <f>IF(L103=0,Q103,P103)</f>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="T103" t="str">
-        <f>CONCATENATE("images/choice_trial_",P103,".png")</f>
+        <f t="shared" si="36"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U103" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q103,".png")</f>
+        <f t="shared" si="37"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V103" s="6">
@@ -10985,24 +10992,24 @@
         <v>8</v>
       </c>
       <c r="X103" t="str">
-        <f>IF(V103=1,"f","j")</f>
+        <f t="shared" si="38"/>
         <v>f</v>
       </c>
       <c r="Y103">
         <v>1</v>
       </c>
-      <c r="Z103">
+      <c r="AA103">
         <v>51</v>
       </c>
-      <c r="AA103" t="str">
-        <f>IF(N103=N101,"REP2",IF(N103=N100,"REP3","."))</f>
+      <c r="AB103" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB103">
+      <c r="AC103">
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -11013,19 +11020,19 @@
         <v>14</v>
       </c>
       <c r="D104" t="str">
-        <f>IF(L104=0,T104,U104)</f>
+        <f t="shared" si="30"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="E104" t="str">
-        <f>IF(L104=0,U104,T104)</f>
+        <f t="shared" si="31"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F104" t="str">
-        <f>IF(AND(L104=0),"f",IF(AND(L104=1),"j",IF(AND(L104=0),"j","f")))</f>
+        <f t="shared" si="32"/>
         <v>j</v>
       </c>
       <c r="G104" t="str">
-        <f>IF(AND(V104=1,L104=0),"f",IF(AND(V104=1,L104=1),"j",IF(AND(V104=0,L104=0),"j","f")))</f>
+        <f t="shared" si="33"/>
         <v>j</v>
       </c>
       <c r="H104">
@@ -11059,19 +11066,19 @@
         <v>12</v>
       </c>
       <c r="R104">
-        <f>IF(L104=0,P104,Q104)</f>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="S104">
-        <f>IF(L104=0,Q104,P104)</f>
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
       <c r="T104" t="str">
-        <f>CONCATENATE("images/choice_trial_",P104,".png")</f>
+        <f t="shared" si="36"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U104" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q104,".png")</f>
+        <f t="shared" si="37"/>
         <v>images/choice_trial_12.png</v>
       </c>
       <c r="V104">
@@ -11081,24 +11088,24 @@
         <v>8</v>
       </c>
       <c r="X104" t="str">
-        <f>IF(V104=1,"f","j")</f>
+        <f t="shared" si="38"/>
         <v>f</v>
       </c>
       <c r="Y104">
         <v>0</v>
       </c>
-      <c r="Z104">
+      <c r="AA104">
         <v>52</v>
       </c>
-      <c r="AA104" t="str">
-        <f>IF(N104=N102,"REP2",IF(N104=N101,"REP3","."))</f>
+      <c r="AB104" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB104">
+      <c r="AC104">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -11109,19 +11116,19 @@
         <v>12</v>
       </c>
       <c r="D105" t="str">
-        <f>IF(L105=0,T105,U105)</f>
+        <f t="shared" si="30"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E105" t="str">
-        <f>IF(L105=0,U105,T105)</f>
+        <f t="shared" si="31"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F105" t="str">
-        <f>IF(AND(L105=0),"f",IF(AND(L105=1),"j",IF(AND(L105=0),"j","f")))</f>
+        <f t="shared" si="32"/>
         <v>j</v>
       </c>
       <c r="G105" t="str">
-        <f>IF(AND(V105=1,L105=0),"f",IF(AND(V105=1,L105=1),"j",IF(AND(V105=0,L105=0),"j","f")))</f>
+        <f t="shared" si="33"/>
         <v>j</v>
       </c>
       <c r="H105">
@@ -11155,19 +11162,19 @@
         <v>10</v>
       </c>
       <c r="R105">
-        <f>IF(L105=0,P105,Q105)</f>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="S105">
-        <f>IF(L105=0,Q105,P105)</f>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="T105" t="str">
-        <f>CONCATENATE("images/choice_trial_",P105,".png")</f>
+        <f t="shared" si="36"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="U105" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q105,".png")</f>
+        <f t="shared" si="37"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V105">
@@ -11177,24 +11184,24 @@
         <v>8</v>
       </c>
       <c r="X105" t="str">
-        <f>IF(V105=1,"f","j")</f>
+        <f t="shared" si="38"/>
         <v>f</v>
       </c>
       <c r="Y105">
         <v>0</v>
       </c>
-      <c r="Z105">
+      <c r="AA105">
         <v>53</v>
       </c>
-      <c r="AA105" t="str">
-        <f>IF(N105=N103,"REP2",IF(N105=N102,"REP3","."))</f>
+      <c r="AB105" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB105">
+      <c r="AC105">
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -11205,19 +11212,19 @@
         <v>22</v>
       </c>
       <c r="D106" t="str">
-        <f>IF(L106=0,T106,U106)</f>
+        <f t="shared" si="30"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E106" t="str">
-        <f>IF(L106=0,U106,T106)</f>
+        <f t="shared" si="31"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="F106" t="str">
-        <f>IF(AND(L106=0),"f",IF(AND(L106=1),"j",IF(AND(L106=0),"j","f")))</f>
+        <f t="shared" si="32"/>
         <v>j</v>
       </c>
       <c r="G106" t="str">
-        <f>IF(AND(V106=1,L106=0),"f",IF(AND(V106=1,L106=1),"j",IF(AND(V106=0,L106=0),"j","f")))</f>
+        <f t="shared" si="33"/>
         <v>j</v>
       </c>
       <c r="H106">
@@ -11251,19 +11258,19 @@
         <v>2</v>
       </c>
       <c r="R106">
-        <f>IF(L106=0,P106,Q106)</f>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="S106">
-        <f>IF(L106=0,Q106,P106)</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="T106" t="str">
-        <f>CONCATENATE("images/choice_trial_",P106,".png")</f>
+        <f t="shared" si="36"/>
         <v>images/choice_trial_1.png</v>
       </c>
       <c r="U106" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q106,".png")</f>
+        <f t="shared" si="37"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V106" s="6">
@@ -11273,24 +11280,24 @@
         <v>8</v>
       </c>
       <c r="X106" t="str">
-        <f>IF(V106=1,"f","j")</f>
+        <f t="shared" si="38"/>
         <v>f</v>
       </c>
       <c r="Y106">
         <v>1</v>
       </c>
-      <c r="Z106">
+      <c r="AA106">
         <v>52</v>
       </c>
-      <c r="AA106" t="str">
-        <f>IF(N106=N104,"REP2",IF(N106=N103,"REP3","."))</f>
+      <c r="AB106" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB106">
+      <c r="AC106">
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -11301,19 +11308,19 @@
         <v>10</v>
       </c>
       <c r="D107" t="str">
-        <f>IF(L107=0,T107,U107)</f>
+        <f t="shared" si="30"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E107" t="str">
-        <f>IF(L107=0,U107,T107)</f>
+        <f t="shared" si="31"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F107" t="str">
-        <f>IF(AND(L107=0),"f",IF(AND(L107=1),"j",IF(AND(L107=0),"j","f")))</f>
+        <f t="shared" si="32"/>
         <v>f</v>
       </c>
       <c r="G107" t="str">
-        <f>IF(AND(V107=1,L107=0),"f",IF(AND(V107=1,L107=1),"j",IF(AND(V107=0,L107=0),"j","f")))</f>
+        <f t="shared" si="33"/>
         <v>f</v>
       </c>
       <c r="H107">
@@ -11347,19 +11354,19 @@
         <v>14</v>
       </c>
       <c r="R107">
-        <f>IF(L107=0,P107,Q107)</f>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="S107">
-        <f>IF(L107=0,Q107,P107)</f>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="T107" t="str">
-        <f>CONCATENATE("images/choice_trial_",P107,".png")</f>
+        <f t="shared" si="36"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="U107" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q107,".png")</f>
+        <f t="shared" si="37"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="V107" s="3">
@@ -11369,24 +11376,24 @@
         <v>8</v>
       </c>
       <c r="X107" t="str">
-        <f>IF(V107=1,"f","j")</f>
+        <f t="shared" si="38"/>
         <v>f</v>
       </c>
       <c r="Y107">
         <v>0</v>
       </c>
-      <c r="Z107">
+      <c r="AA107">
         <v>54</v>
       </c>
-      <c r="AA107" t="str">
-        <f>IF(N107=N105,"REP2",IF(N107=N104,"REP3","."))</f>
+      <c r="AB107" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB107">
+      <c r="AC107">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -11397,19 +11404,19 @@
         <v>20</v>
       </c>
       <c r="D108" t="str">
-        <f>IF(L108=0,T108,U108)</f>
+        <f t="shared" si="30"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E108" t="str">
-        <f>IF(L108=0,U108,T108)</f>
+        <f t="shared" si="31"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F108" t="str">
-        <f>IF(AND(L108=0),"f",IF(AND(L108=1),"j",IF(AND(L108=0),"j","f")))</f>
+        <f t="shared" si="32"/>
         <v>f</v>
       </c>
       <c r="G108" t="str">
-        <f>IF(AND(V108=1,L108=0),"f",IF(AND(V108=1,L108=1),"j",IF(AND(V108=0,L108=0),"j","f")))</f>
+        <f t="shared" si="33"/>
         <v>j</v>
       </c>
       <c r="H108">
@@ -11443,19 +11450,19 @@
         <v>8</v>
       </c>
       <c r="R108">
-        <f>IF(L108=0,P108,Q108)</f>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="S108">
-        <f>IF(L108=0,Q108,P108)</f>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="T108" t="str">
-        <f>CONCATENATE("images/choice_trial_",P108,".png")</f>
+        <f t="shared" si="36"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U108" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q108,".png")</f>
+        <f t="shared" si="37"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="V108" s="6">
@@ -11465,24 +11472,24 @@
         <v>8</v>
       </c>
       <c r="X108" t="str">
-        <f>IF(V108=1,"f","j")</f>
+        <f t="shared" si="38"/>
         <v>j</v>
       </c>
       <c r="Y108">
         <v>1</v>
       </c>
-      <c r="Z108">
+      <c r="AA108">
         <v>53</v>
       </c>
-      <c r="AA108" t="str">
-        <f>IF(N108=N106,"REP2",IF(N108=N105,"REP3","."))</f>
+      <c r="AB108" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB108">
+      <c r="AC108">
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -11493,19 +11500,19 @@
         <v>7</v>
       </c>
       <c r="D109" t="str">
-        <f>IF(L109=0,T109,U109)</f>
+        <f t="shared" si="30"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E109" t="str">
-        <f>IF(L109=0,U109,T109)</f>
+        <f t="shared" si="31"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="F109" t="str">
-        <f>IF(AND(L109=0),"f",IF(AND(L109=1),"j",IF(AND(L109=0),"j","f")))</f>
+        <f t="shared" si="32"/>
         <v>j</v>
       </c>
       <c r="G109" t="str">
-        <f>IF(AND(V109=1,L109=0),"f",IF(AND(V109=1,L109=1),"j",IF(AND(V109=0,L109=0),"j","f")))</f>
+        <f t="shared" si="33"/>
         <v>j</v>
       </c>
       <c r="H109">
@@ -11539,19 +11546,19 @@
         <v>6</v>
       </c>
       <c r="R109">
-        <f>IF(L109=0,P109,Q109)</f>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="S109">
-        <f>IF(L109=0,Q109,P109)</f>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="T109" t="str">
-        <f>CONCATENATE("images/choice_trial_",P109,".png")</f>
+        <f t="shared" si="36"/>
         <v>images/choice_trial_5.png</v>
       </c>
       <c r="U109" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q109,".png")</f>
+        <f t="shared" si="37"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="V109" s="6">
@@ -11561,25 +11568,25 @@
         <v>8</v>
       </c>
       <c r="X109" t="str">
-        <f>IF(V109=1,"f","j")</f>
+        <f t="shared" si="38"/>
         <v>f</v>
       </c>
       <c r="Y109">
         <v>1</v>
       </c>
-      <c r="Z109">
+      <c r="AA109">
         <v>54</v>
       </c>
-      <c r="AA109" t="str">
-        <f>IF(N109=N107,"REP2",IF(N109=N106,"REP3","."))</f>
+      <c r="AB109" t="str">
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="AB109">
+      <c r="AC109">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB109">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC109">
     <sortCondition ref="A2:A109"/>
     <sortCondition descending="1" ref="Y2:Y109"/>
   </sortState>

--- a/lists/learn_list_study4_base.xlsx
+++ b/lists/learn_list_study4_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gelliott/Documents/projects/delaylearn/feedback-delay-four/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB773C1-53DA-B840-9610-43BB38DFE203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7C335E-8280-8E40-BFDF-19381568A63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2420" yWindow="1240" windowWidth="43380" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1108,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E25E4B-9AFA-2443-8C1F-D7B80241CF51}">
-  <dimension ref="A1:AC109"/>
+  <dimension ref="A1:AC115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,6 +1300,9 @@
       <c r="Y2">
         <v>1</v>
       </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
       <c r="AA2">
         <v>1</v>
       </c>
@@ -1395,6 +1398,9 @@
       <c r="Y3">
         <v>0</v>
       </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
       <c r="AA3">
         <v>1</v>
       </c>
@@ -1490,6 +1496,9 @@
       <c r="Y4">
         <v>1</v>
       </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
       <c r="AA4">
         <v>2</v>
       </c>
@@ -1586,6 +1595,9 @@
       <c r="Y5">
         <v>0</v>
       </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
       <c r="AA5">
         <v>2</v>
       </c>
@@ -1682,6 +1694,9 @@
       <c r="Y6">
         <v>0</v>
       </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
       <c r="AA6">
         <v>3</v>
       </c>
@@ -1778,6 +1793,9 @@
       <c r="Y7">
         <v>1</v>
       </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
       <c r="AA7">
         <v>3</v>
       </c>
@@ -1874,6 +1892,9 @@
       <c r="Y8">
         <v>1</v>
       </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
       <c r="AA8">
         <v>4</v>
       </c>
@@ -1970,6 +1991,9 @@
       <c r="Y9">
         <v>0</v>
       </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
       <c r="AA9">
         <v>4</v>
       </c>
@@ -2066,6 +2090,9 @@
       <c r="Y10">
         <v>0</v>
       </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
       <c r="AA10">
         <v>5</v>
       </c>
@@ -2162,6 +2189,9 @@
       <c r="Y11">
         <v>1</v>
       </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
       <c r="AA11">
         <v>5</v>
       </c>
@@ -2258,6 +2288,9 @@
       <c r="Y12">
         <v>0</v>
       </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
       <c r="AA12">
         <v>6</v>
       </c>
@@ -2354,6 +2387,9 @@
       <c r="Y13">
         <v>1</v>
       </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
       <c r="AA13">
         <v>6</v>
       </c>
@@ -2450,6 +2486,9 @@
       <c r="Y14">
         <v>0</v>
       </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
       <c r="AA14">
         <v>7</v>
       </c>
@@ -2546,6 +2585,9 @@
       <c r="Y15">
         <v>1</v>
       </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
       <c r="AA15">
         <v>7</v>
       </c>
@@ -2642,6 +2684,9 @@
       <c r="Y16">
         <v>0</v>
       </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
       <c r="AA16">
         <v>8</v>
       </c>
@@ -2738,6 +2783,9 @@
       <c r="Y17">
         <v>1</v>
       </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
       <c r="AA17">
         <v>8</v>
       </c>
@@ -2834,6 +2882,9 @@
       <c r="Y18">
         <v>1</v>
       </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
       <c r="AA18">
         <v>9</v>
       </c>
@@ -2930,6 +2981,9 @@
       <c r="Y19">
         <v>0</v>
       </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
       <c r="AA19">
         <v>9</v>
       </c>
@@ -3026,6 +3080,9 @@
       <c r="Y20">
         <v>0</v>
       </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
       <c r="AA20">
         <v>10</v>
       </c>
@@ -3122,6 +3179,9 @@
       <c r="Y21">
         <v>1</v>
       </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
       <c r="AA21">
         <v>10</v>
       </c>
@@ -3218,6 +3278,9 @@
       <c r="Y22">
         <v>0</v>
       </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
       <c r="AA22">
         <v>11</v>
       </c>
@@ -3314,6 +3377,9 @@
       <c r="Y23">
         <v>0</v>
       </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
       <c r="AA23">
         <v>12</v>
       </c>
@@ -3410,6 +3476,9 @@
       <c r="Y24">
         <v>1</v>
       </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
       <c r="AA24">
         <v>11</v>
       </c>
@@ -3506,6 +3575,9 @@
       <c r="Y25">
         <v>1</v>
       </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
       <c r="AA25">
         <v>12</v>
       </c>
@@ -3602,6 +3674,9 @@
       <c r="Y26">
         <v>1</v>
       </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
       <c r="AA26">
         <v>13</v>
       </c>
@@ -3698,6 +3773,9 @@
       <c r="Y27">
         <v>0</v>
       </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
       <c r="AA27">
         <v>13</v>
       </c>
@@ -3794,6 +3872,9 @@
       <c r="Y28">
         <v>0</v>
       </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
       <c r="AA28">
         <v>14</v>
       </c>
@@ -3890,6 +3971,9 @@
       <c r="Y29">
         <v>1</v>
       </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
       <c r="AA29">
         <v>14</v>
       </c>
@@ -3986,6 +4070,9 @@
       <c r="Y30">
         <v>1</v>
       </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
       <c r="AA30">
         <v>15</v>
       </c>
@@ -4082,6 +4169,9 @@
       <c r="Y31">
         <v>0</v>
       </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
       <c r="AA31">
         <v>15</v>
       </c>
@@ -4178,6 +4268,9 @@
       <c r="Y32">
         <v>1</v>
       </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
       <c r="AA32">
         <v>16</v>
       </c>
@@ -4274,6 +4367,9 @@
       <c r="Y33">
         <v>1</v>
       </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
       <c r="AA33">
         <v>17</v>
       </c>
@@ -4370,6 +4466,9 @@
       <c r="Y34">
         <v>0</v>
       </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
       <c r="AA34">
         <v>16</v>
       </c>
@@ -4466,6 +4565,9 @@
       <c r="Y35">
         <v>0</v>
       </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
       <c r="AA35">
         <v>17</v>
       </c>
@@ -4562,6 +4664,9 @@
       <c r="Y36">
         <v>1</v>
       </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
       <c r="AA36">
         <v>18</v>
       </c>
@@ -4658,6 +4763,9 @@
       <c r="Y37">
         <v>0</v>
       </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
       <c r="AA37">
         <v>18</v>
       </c>
@@ -4754,6 +4862,9 @@
       <c r="Y38">
         <v>1</v>
       </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
       <c r="AA38">
         <v>19</v>
       </c>
@@ -4850,6 +4961,9 @@
       <c r="Y39">
         <v>0</v>
       </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
       <c r="AA39">
         <v>19</v>
       </c>
@@ -4946,6 +5060,9 @@
       <c r="Y40">
         <v>0</v>
       </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
       <c r="AA40">
         <v>20</v>
       </c>
@@ -5042,6 +5159,9 @@
       <c r="Y41">
         <v>1</v>
       </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
       <c r="AA41">
         <v>20</v>
       </c>
@@ -5138,6 +5258,9 @@
       <c r="Y42">
         <v>1</v>
       </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
       <c r="AA42">
         <v>21</v>
       </c>
@@ -5234,6 +5357,9 @@
       <c r="Y43">
         <v>0</v>
       </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
       <c r="AA43">
         <v>21</v>
       </c>
@@ -5330,6 +5456,9 @@
       <c r="Y44">
         <v>0</v>
       </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
       <c r="AA44">
         <v>22</v>
       </c>
@@ -5426,6 +5555,9 @@
       <c r="Y45">
         <v>1</v>
       </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
       <c r="AA45">
         <v>22</v>
       </c>
@@ -5522,6 +5654,9 @@
       <c r="Y46">
         <v>1</v>
       </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
       <c r="AA46">
         <v>23</v>
       </c>
@@ -5618,6 +5753,9 @@
       <c r="Y47">
         <v>0</v>
       </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
       <c r="AA47">
         <v>23</v>
       </c>
@@ -5714,6 +5852,9 @@
       <c r="Y48">
         <v>1</v>
       </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
       <c r="AA48">
         <v>24</v>
       </c>
@@ -5810,6 +5951,9 @@
       <c r="Y49">
         <v>0</v>
       </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
       <c r="AA49">
         <v>24</v>
       </c>
@@ -5906,6 +6050,9 @@
       <c r="Y50">
         <v>1</v>
       </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
       <c r="AA50">
         <v>25</v>
       </c>
@@ -6002,7 +6149,9 @@
       <c r="Y51" s="5">
         <v>0</v>
       </c>
-      <c r="Z51" s="5"/>
+      <c r="Z51">
+        <v>1</v>
+      </c>
       <c r="AA51" s="5">
         <v>25</v>
       </c>
@@ -6099,6 +6248,9 @@
       <c r="Y52">
         <v>1</v>
       </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
       <c r="AA52">
         <v>26</v>
       </c>
@@ -6195,6 +6347,9 @@
       <c r="Y53">
         <v>0</v>
       </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
       <c r="AA53">
         <v>26</v>
       </c>
@@ -6291,7 +6446,9 @@
       <c r="Y54" s="5">
         <v>0</v>
       </c>
-      <c r="Z54" s="5"/>
+      <c r="Z54">
+        <v>0</v>
+      </c>
       <c r="AA54" s="5">
         <v>27</v>
       </c>
@@ -6388,6 +6545,9 @@
       <c r="Y55">
         <v>1</v>
       </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
       <c r="AA55">
         <v>27</v>
       </c>
@@ -6484,6 +6644,9 @@
       <c r="Y56">
         <v>1</v>
       </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
       <c r="AA56">
         <v>28</v>
       </c>
@@ -6580,6 +6743,9 @@
       <c r="Y57">
         <v>0</v>
       </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
       <c r="AA57">
         <v>28</v>
       </c>
@@ -6676,6 +6842,9 @@
       <c r="Y58">
         <v>0</v>
       </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
       <c r="AA58">
         <v>30</v>
       </c>
@@ -6772,6 +6941,9 @@
       <c r="Y59">
         <v>1</v>
       </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
       <c r="AA59">
         <v>29</v>
       </c>
@@ -6868,6 +7040,9 @@
       <c r="Y60">
         <v>0</v>
       </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
       <c r="AA60">
         <v>29</v>
       </c>
@@ -6964,6 +7139,9 @@
       <c r="Y61">
         <v>1</v>
       </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
       <c r="AA61">
         <v>30</v>
       </c>
@@ -7060,6 +7238,9 @@
       <c r="Y62">
         <v>1</v>
       </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
       <c r="AA62">
         <v>31</v>
       </c>
@@ -7156,6 +7337,9 @@
       <c r="Y63">
         <v>0</v>
       </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
       <c r="AA63">
         <v>32</v>
       </c>
@@ -7252,6 +7436,9 @@
       <c r="Y64">
         <v>1</v>
       </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
       <c r="AA64">
         <v>32</v>
       </c>
@@ -7348,6 +7535,9 @@
       <c r="Y65">
         <v>0</v>
       </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
       <c r="AA65">
         <v>31</v>
       </c>
@@ -7444,6 +7634,9 @@
       <c r="Y66">
         <v>1</v>
       </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
       <c r="AA66">
         <v>33</v>
       </c>
@@ -7540,6 +7733,9 @@
       <c r="Y67">
         <v>0</v>
       </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
       <c r="AA67">
         <v>33</v>
       </c>
@@ -7636,6 +7832,9 @@
       <c r="Y68">
         <v>1</v>
       </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
       <c r="AA68">
         <v>34</v>
       </c>
@@ -7732,6 +7931,9 @@
       <c r="Y69">
         <v>0</v>
       </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
       <c r="AA69">
         <v>34</v>
       </c>
@@ -7828,6 +8030,9 @@
       <c r="Y70">
         <v>1</v>
       </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
       <c r="AA70">
         <v>35</v>
       </c>
@@ -7924,6 +8129,9 @@
       <c r="Y71">
         <v>0</v>
       </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
       <c r="AA71">
         <v>35</v>
       </c>
@@ -8020,6 +8228,9 @@
       <c r="Y72">
         <v>1</v>
       </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
       <c r="AA72">
         <v>36</v>
       </c>
@@ -8116,6 +8327,9 @@
       <c r="Y73">
         <v>0</v>
       </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
       <c r="AA73">
         <v>36</v>
       </c>
@@ -8212,6 +8426,9 @@
       <c r="Y74">
         <v>0</v>
       </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
       <c r="AA74">
         <v>37</v>
       </c>
@@ -8308,6 +8525,9 @@
       <c r="Y75">
         <v>0</v>
       </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
       <c r="AA75">
         <v>38</v>
       </c>
@@ -8404,6 +8624,9 @@
       <c r="Y76">
         <v>1</v>
       </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
       <c r="AA76">
         <v>37</v>
       </c>
@@ -8500,6 +8723,9 @@
       <c r="Y77">
         <v>0</v>
       </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
       <c r="AA77">
         <v>39</v>
       </c>
@@ -8596,6 +8822,9 @@
       <c r="Y78">
         <v>1</v>
       </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
       <c r="AA78">
         <v>38</v>
       </c>
@@ -8692,6 +8921,9 @@
       <c r="Y79">
         <v>1</v>
       </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
       <c r="AA79">
         <v>39</v>
       </c>
@@ -8788,6 +9020,9 @@
       <c r="Y80">
         <v>0</v>
       </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
       <c r="AA80">
         <v>40</v>
       </c>
@@ -8884,6 +9119,9 @@
       <c r="Y81">
         <v>0</v>
       </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
       <c r="AA81">
         <v>42</v>
       </c>
@@ -8980,6 +9218,9 @@
       <c r="Y82">
         <v>1</v>
       </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
       <c r="AA82">
         <v>40</v>
       </c>
@@ -9076,6 +9317,9 @@
       <c r="Y83">
         <v>1</v>
       </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
       <c r="AA83">
         <v>41</v>
       </c>
@@ -9172,6 +9416,9 @@
       <c r="Y84">
         <v>0</v>
       </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
       <c r="AA84">
         <v>41</v>
       </c>
@@ -9268,6 +9515,9 @@
       <c r="Y85">
         <v>1</v>
       </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
       <c r="AA85">
         <v>42</v>
       </c>
@@ -9364,6 +9614,9 @@
       <c r="Y86">
         <v>0</v>
       </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
       <c r="AA86">
         <v>43</v>
       </c>
@@ -9460,6 +9713,9 @@
       <c r="Y87">
         <v>1</v>
       </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
       <c r="AA87">
         <v>43</v>
       </c>
@@ -9556,6 +9812,9 @@
       <c r="Y88">
         <v>0</v>
       </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
       <c r="AA88">
         <v>44</v>
       </c>
@@ -9652,6 +9911,9 @@
       <c r="Y89">
         <v>1</v>
       </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
       <c r="AA89">
         <v>44</v>
       </c>
@@ -9748,6 +10010,9 @@
       <c r="Y90">
         <v>0</v>
       </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
       <c r="AA90">
         <v>45</v>
       </c>
@@ -9844,6 +10109,9 @@
       <c r="Y91">
         <v>1</v>
       </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
       <c r="AA91">
         <v>45</v>
       </c>
@@ -9940,6 +10208,9 @@
       <c r="Y92">
         <v>1</v>
       </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
       <c r="AA92">
         <v>46</v>
       </c>
@@ -10036,6 +10307,9 @@
       <c r="Y93">
         <v>0</v>
       </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
       <c r="AA93">
         <v>46</v>
       </c>
@@ -10132,7 +10406,9 @@
       <c r="Y94" s="5">
         <v>0</v>
       </c>
-      <c r="Z94" s="5"/>
+      <c r="Z94">
+        <v>0</v>
+      </c>
       <c r="AA94" s="5">
         <v>47</v>
       </c>
@@ -10229,7 +10505,9 @@
       <c r="Y95" s="5">
         <v>0</v>
       </c>
-      <c r="Z95" s="5"/>
+      <c r="Z95">
+        <v>0</v>
+      </c>
       <c r="AA95" s="5">
         <v>48</v>
       </c>
@@ -10326,6 +10604,9 @@
       <c r="Y96">
         <v>1</v>
       </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
       <c r="AA96">
         <v>47</v>
       </c>
@@ -10422,6 +10703,9 @@
       <c r="Y97">
         <v>1</v>
       </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
       <c r="AA97">
         <v>48</v>
       </c>
@@ -10490,7 +10774,7 @@
         <v>14</v>
       </c>
       <c r="R98">
-        <f t="shared" ref="R98:R129" si="34">IF(L98=0,P98,Q98)</f>
+        <f t="shared" ref="R98:R109" si="34">IF(L98=0,P98,Q98)</f>
         <v>14</v>
       </c>
       <c r="S98">
@@ -10518,6 +10802,9 @@
       <c r="Y98">
         <v>0</v>
       </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
       <c r="AA98">
         <v>49</v>
       </c>
@@ -10614,6 +10901,9 @@
       <c r="Y99">
         <v>0</v>
       </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
       <c r="AA99">
         <v>50</v>
       </c>
@@ -10710,6 +11000,9 @@
       <c r="Y100">
         <v>1</v>
       </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
       <c r="AA100">
         <v>49</v>
       </c>
@@ -10806,6 +11099,9 @@
       <c r="Y101">
         <v>0</v>
       </c>
+      <c r="Z101">
+        <v>1</v>
+      </c>
       <c r="AA101">
         <v>51</v>
       </c>
@@ -10902,6 +11198,9 @@
       <c r="Y102">
         <v>1</v>
       </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
       <c r="AA102">
         <v>50</v>
       </c>
@@ -10998,6 +11297,9 @@
       <c r="Y103">
         <v>1</v>
       </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
       <c r="AA103">
         <v>51</v>
       </c>
@@ -11094,6 +11396,9 @@
       <c r="Y104">
         <v>0</v>
       </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
       <c r="AA104">
         <v>52</v>
       </c>
@@ -11190,6 +11495,9 @@
       <c r="Y105">
         <v>0</v>
       </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
       <c r="AA105">
         <v>53</v>
       </c>
@@ -11286,6 +11594,9 @@
       <c r="Y106">
         <v>1</v>
       </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
       <c r="AA106">
         <v>52</v>
       </c>
@@ -11382,6 +11693,9 @@
       <c r="Y107">
         <v>0</v>
       </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
       <c r="AA107">
         <v>54</v>
       </c>
@@ -11478,6 +11792,9 @@
       <c r="Y108">
         <v>1</v>
       </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
       <c r="AA108">
         <v>53</v>
       </c>
@@ -11574,6 +11891,9 @@
       <c r="Y109">
         <v>1</v>
       </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
       <c r="AA109">
         <v>54</v>
       </c>
@@ -11583,6 +11903,36 @@
       </c>
       <c r="AC109">
         <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z115">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lists/learn_list_study4_base.xlsx
+++ b/lists/learn_list_study4_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gelliott/Documents/projects/delaylearn/feedback-delay-four/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5F6A3B-F0BE-C641-96F1-F5227638F261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B4F3CB-A02C-9C45-9357-2AEDA0F77013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1240" windowWidth="43380" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_study4_try_counter1" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="64">
   <si>
     <t>pattern_stimuli</t>
   </si>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:AF109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K109"/>
+      <selection activeCell="J2" sqref="J2:J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1288,8 +1288,8 @@
         <f t="shared" ref="I2:I33" si="3">IF(AND(Y2=1,O2=0),"f",IF(AND(Y2=1,O2=1),"j",IF(AND(Y2=0,O2=0),"j","f")))</f>
         <v>f</v>
       </c>
-      <c r="J2">
-        <v>0</v>
+      <c r="J2" t="s">
+        <v>63</v>
       </c>
       <c r="K2" t="s">
         <v>63</v>
@@ -1395,8 +1395,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J3">
-        <v>0</v>
+      <c r="J3" t="s">
+        <v>63</v>
       </c>
       <c r="K3" t="s">
         <v>63</v>
@@ -1502,8 +1502,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="J4">
-        <v>0</v>
+      <c r="J4" t="s">
+        <v>63</v>
       </c>
       <c r="K4" t="s">
         <v>63</v>
@@ -1611,8 +1611,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J5">
-        <v>0</v>
+      <c r="J5" t="s">
+        <v>63</v>
       </c>
       <c r="K5" t="s">
         <v>63</v>
@@ -1720,8 +1720,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="J6" s="6">
-        <v>1</v>
+      <c r="J6" t="s">
+        <v>63</v>
       </c>
       <c r="K6" t="s">
         <v>63</v>
@@ -1829,8 +1829,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J7">
-        <v>0</v>
+      <c r="J7" t="s">
+        <v>63</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>
@@ -1938,8 +1938,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="J8">
-        <v>1</v>
+      <c r="J8" t="s">
+        <v>63</v>
       </c>
       <c r="K8" t="s">
         <v>63</v>
@@ -2047,8 +2047,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="J9">
-        <v>0</v>
+      <c r="J9" t="s">
+        <v>63</v>
       </c>
       <c r="K9" t="s">
         <v>63</v>
@@ -2156,8 +2156,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J10" s="6">
-        <v>0</v>
+      <c r="J10" t="s">
+        <v>63</v>
       </c>
       <c r="K10" t="s">
         <v>63</v>
@@ -2265,8 +2265,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J11">
-        <v>0</v>
+      <c r="J11" t="s">
+        <v>63</v>
       </c>
       <c r="K11" t="s">
         <v>63</v>
@@ -2374,8 +2374,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J12">
-        <v>0</v>
+      <c r="J12" t="s">
+        <v>63</v>
       </c>
       <c r="K12" t="s">
         <v>63</v>
@@ -2483,8 +2483,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="J13">
-        <v>0</v>
+      <c r="J13" t="s">
+        <v>63</v>
       </c>
       <c r="K13" t="s">
         <v>63</v>
@@ -2592,8 +2592,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J14">
-        <v>0</v>
+      <c r="J14" t="s">
+        <v>63</v>
       </c>
       <c r="K14" t="s">
         <v>63</v>
@@ -2701,8 +2701,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="J15">
-        <v>0</v>
+      <c r="J15" t="s">
+        <v>63</v>
       </c>
       <c r="K15" t="s">
         <v>63</v>
@@ -2810,8 +2810,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J16">
-        <v>0</v>
+      <c r="J16" t="s">
+        <v>63</v>
       </c>
       <c r="K16" t="s">
         <v>63</v>
@@ -2919,8 +2919,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="J17">
-        <v>1</v>
+      <c r="J17" t="s">
+        <v>63</v>
       </c>
       <c r="K17" t="s">
         <v>63</v>
@@ -3028,8 +3028,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J18">
-        <v>0</v>
+      <c r="J18" t="s">
+        <v>63</v>
       </c>
       <c r="K18" t="s">
         <v>63</v>
@@ -3137,8 +3137,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J19">
-        <v>0</v>
+      <c r="J19" t="s">
+        <v>63</v>
       </c>
       <c r="K19" t="s">
         <v>63</v>
@@ -3246,8 +3246,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J20">
-        <v>0</v>
+      <c r="J20" t="s">
+        <v>63</v>
       </c>
       <c r="K20" t="s">
         <v>63</v>
@@ -3355,8 +3355,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="J21">
-        <v>0</v>
+      <c r="J21" t="s">
+        <v>63</v>
       </c>
       <c r="K21" t="s">
         <v>63</v>
@@ -3464,8 +3464,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J22">
-        <v>0</v>
+      <c r="J22" t="s">
+        <v>63</v>
       </c>
       <c r="K22" t="s">
         <v>63</v>
@@ -3573,8 +3573,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="J23">
-        <v>1</v>
+      <c r="J23" t="s">
+        <v>63</v>
       </c>
       <c r="K23" t="s">
         <v>63</v>
@@ -3682,8 +3682,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J24">
-        <v>0</v>
+      <c r="J24" t="s">
+        <v>63</v>
       </c>
       <c r="K24" t="s">
         <v>63</v>
@@ -3791,8 +3791,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J25">
-        <v>0</v>
+      <c r="J25" t="s">
+        <v>63</v>
       </c>
       <c r="K25" t="s">
         <v>63</v>
@@ -3900,8 +3900,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="J26">
-        <v>0</v>
+      <c r="J26" t="s">
+        <v>63</v>
       </c>
       <c r="K26" t="s">
         <v>63</v>
@@ -4009,8 +4009,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J27">
-        <v>0</v>
+      <c r="J27" t="s">
+        <v>63</v>
       </c>
       <c r="K27" t="s">
         <v>63</v>
@@ -4118,8 +4118,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J28">
-        <v>0</v>
+      <c r="J28" t="s">
+        <v>63</v>
       </c>
       <c r="K28" t="s">
         <v>63</v>
@@ -4227,8 +4227,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J29">
-        <v>0</v>
+      <c r="J29" t="s">
+        <v>63</v>
       </c>
       <c r="K29" t="s">
         <v>63</v>
@@ -4336,8 +4336,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="J30">
-        <v>1</v>
+      <c r="J30" t="s">
+        <v>63</v>
       </c>
       <c r="K30" t="s">
         <v>63</v>
@@ -4445,8 +4445,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="J31">
-        <v>1</v>
+      <c r="J31" t="s">
+        <v>63</v>
       </c>
       <c r="K31" t="s">
         <v>63</v>
@@ -4554,8 +4554,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="J32">
-        <v>0</v>
+      <c r="J32" t="s">
+        <v>63</v>
       </c>
       <c r="K32" t="s">
         <v>63</v>
@@ -4663,8 +4663,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="J33">
-        <v>1</v>
+      <c r="J33" t="s">
+        <v>63</v>
       </c>
       <c r="K33" t="s">
         <v>63</v>
@@ -4772,8 +4772,8 @@
         <f t="shared" ref="I34:I65" si="14">IF(AND(Y34=1,O34=0),"f",IF(AND(Y34=1,O34=1),"j",IF(AND(Y34=0,O34=0),"j","f")))</f>
         <v>j</v>
       </c>
-      <c r="J34">
-        <v>0</v>
+      <c r="J34" t="s">
+        <v>63</v>
       </c>
       <c r="K34" t="s">
         <v>63</v>
@@ -4881,8 +4881,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J35">
-        <v>0</v>
+      <c r="J35" t="s">
+        <v>63</v>
       </c>
       <c r="K35" t="s">
         <v>63</v>
@@ -4990,8 +4990,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J36">
-        <v>0</v>
+      <c r="J36" t="s">
+        <v>63</v>
       </c>
       <c r="K36" t="s">
         <v>63</v>
@@ -5099,8 +5099,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J37">
-        <v>1</v>
+      <c r="J37" t="s">
+        <v>63</v>
       </c>
       <c r="K37" t="s">
         <v>63</v>
@@ -5208,8 +5208,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J38">
-        <v>0</v>
+      <c r="J38" t="s">
+        <v>63</v>
       </c>
       <c r="K38" t="s">
         <v>63</v>
@@ -5317,8 +5317,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J39">
-        <v>1</v>
+      <c r="J39" t="s">
+        <v>63</v>
       </c>
       <c r="K39" t="s">
         <v>63</v>
@@ -5426,8 +5426,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J40">
-        <v>0</v>
+      <c r="J40" t="s">
+        <v>63</v>
       </c>
       <c r="K40" t="s">
         <v>63</v>
@@ -5535,8 +5535,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J41">
-        <v>1</v>
+      <c r="J41" t="s">
+        <v>63</v>
       </c>
       <c r="K41" t="s">
         <v>63</v>
@@ -5644,8 +5644,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J42">
-        <v>0</v>
+      <c r="J42" t="s">
+        <v>63</v>
       </c>
       <c r="K42" t="s">
         <v>63</v>
@@ -5753,8 +5753,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J43">
-        <v>0</v>
+      <c r="J43" t="s">
+        <v>63</v>
       </c>
       <c r="K43" t="s">
         <v>63</v>
@@ -5862,8 +5862,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J44">
-        <v>0</v>
+      <c r="J44" t="s">
+        <v>63</v>
       </c>
       <c r="K44" t="s">
         <v>63</v>
@@ -5971,8 +5971,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J45">
-        <v>0</v>
+      <c r="J45" t="s">
+        <v>63</v>
       </c>
       <c r="K45" t="s">
         <v>63</v>
@@ -6080,8 +6080,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J46">
-        <v>0</v>
+      <c r="J46" t="s">
+        <v>63</v>
       </c>
       <c r="K46" t="s">
         <v>63</v>
@@ -6189,8 +6189,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J47">
-        <v>0</v>
+      <c r="J47" t="s">
+        <v>63</v>
       </c>
       <c r="K47" t="s">
         <v>63</v>
@@ -6298,8 +6298,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J48">
-        <v>1</v>
+      <c r="J48" t="s">
+        <v>63</v>
       </c>
       <c r="K48" t="s">
         <v>63</v>
@@ -6407,8 +6407,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J49">
-        <v>0</v>
+      <c r="J49" t="s">
+        <v>63</v>
       </c>
       <c r="K49" t="s">
         <v>63</v>
@@ -6516,8 +6516,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J50">
-        <v>0</v>
+      <c r="J50" t="s">
+        <v>63</v>
       </c>
       <c r="K50" t="s">
         <v>63</v>
@@ -6625,8 +6625,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J51">
-        <v>0</v>
+      <c r="J51" t="s">
+        <v>63</v>
       </c>
       <c r="K51" t="s">
         <v>63</v>
@@ -6734,8 +6734,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J52">
-        <v>0</v>
+      <c r="J52" t="s">
+        <v>63</v>
       </c>
       <c r="K52" t="s">
         <v>63</v>
@@ -6843,8 +6843,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J53">
-        <v>0</v>
+      <c r="J53" t="s">
+        <v>63</v>
       </c>
       <c r="K53" t="s">
         <v>63</v>
@@ -6952,8 +6952,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J54">
-        <v>1</v>
+      <c r="J54" t="s">
+        <v>63</v>
       </c>
       <c r="K54" t="s">
         <v>63</v>
@@ -7061,8 +7061,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J55">
-        <v>0</v>
+      <c r="J55" t="s">
+        <v>63</v>
       </c>
       <c r="K55" t="s">
         <v>63</v>
@@ -7170,8 +7170,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J56">
-        <v>0</v>
+      <c r="J56" t="s">
+        <v>63</v>
       </c>
       <c r="K56" t="s">
         <v>63</v>
@@ -7279,8 +7279,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J57">
-        <v>1</v>
+      <c r="J57" t="s">
+        <v>63</v>
       </c>
       <c r="K57" t="s">
         <v>63</v>
@@ -7388,8 +7388,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J58">
-        <v>0</v>
+      <c r="J58" t="s">
+        <v>63</v>
       </c>
       <c r="K58" t="s">
         <v>63</v>
@@ -7497,8 +7497,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J59">
-        <v>0</v>
+      <c r="J59" t="s">
+        <v>63</v>
       </c>
       <c r="K59" t="s">
         <v>63</v>
@@ -7606,8 +7606,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J60">
-        <v>0</v>
+      <c r="J60" t="s">
+        <v>63</v>
       </c>
       <c r="K60" t="s">
         <v>63</v>
@@ -7715,8 +7715,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J61">
-        <v>0</v>
+      <c r="J61" t="s">
+        <v>63</v>
       </c>
       <c r="K61" t="s">
         <v>63</v>
@@ -7824,8 +7824,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J62">
-        <v>0</v>
+      <c r="J62" t="s">
+        <v>63</v>
       </c>
       <c r="K62" t="s">
         <v>63</v>
@@ -7933,8 +7933,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J63">
-        <v>0</v>
+      <c r="J63" t="s">
+        <v>63</v>
       </c>
       <c r="K63" t="s">
         <v>63</v>
@@ -8042,8 +8042,8 @@
         <f t="shared" si="14"/>
         <v>j</v>
       </c>
-      <c r="J64">
-        <v>0</v>
+      <c r="J64" t="s">
+        <v>63</v>
       </c>
       <c r="K64" t="s">
         <v>63</v>
@@ -8151,8 +8151,8 @@
         <f t="shared" si="14"/>
         <v>f</v>
       </c>
-      <c r="J65">
-        <v>0</v>
+      <c r="J65" t="s">
+        <v>63</v>
       </c>
       <c r="K65" t="s">
         <v>63</v>
@@ -8260,8 +8260,8 @@
         <f t="shared" ref="I66:I97" si="25">IF(AND(Y66=1,O66=0),"f",IF(AND(Y66=1,O66=1),"j",IF(AND(Y66=0,O66=0),"j","f")))</f>
         <v>j</v>
       </c>
-      <c r="J66">
-        <v>1</v>
+      <c r="J66" t="s">
+        <v>63</v>
       </c>
       <c r="K66" t="s">
         <v>63</v>
@@ -8369,8 +8369,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J67">
-        <v>0</v>
+      <c r="J67" t="s">
+        <v>63</v>
       </c>
       <c r="K67" t="s">
         <v>63</v>
@@ -8478,8 +8478,8 @@
         <f t="shared" si="25"/>
         <v>j</v>
       </c>
-      <c r="J68">
-        <v>0</v>
+      <c r="J68" t="s">
+        <v>63</v>
       </c>
       <c r="K68" t="s">
         <v>63</v>
@@ -8587,8 +8587,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J69">
-        <v>1</v>
+      <c r="J69" t="s">
+        <v>63</v>
       </c>
       <c r="K69" t="s">
         <v>63</v>
@@ -8696,8 +8696,8 @@
         <f t="shared" si="25"/>
         <v>j</v>
       </c>
-      <c r="J70">
-        <v>0</v>
+      <c r="J70" t="s">
+        <v>63</v>
       </c>
       <c r="K70" t="s">
         <v>63</v>
@@ -8805,8 +8805,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J71">
-        <v>0</v>
+      <c r="J71" t="s">
+        <v>63</v>
       </c>
       <c r="K71" t="s">
         <v>63</v>
@@ -8914,8 +8914,8 @@
         <f t="shared" si="25"/>
         <v>j</v>
       </c>
-      <c r="J72">
-        <v>1</v>
+      <c r="J72" t="s">
+        <v>63</v>
       </c>
       <c r="K72" t="s">
         <v>63</v>
@@ -9023,8 +9023,8 @@
         <f t="shared" si="25"/>
         <v>j</v>
       </c>
-      <c r="J73">
-        <v>1</v>
+      <c r="J73" t="s">
+        <v>63</v>
       </c>
       <c r="K73" t="s">
         <v>63</v>
@@ -9132,8 +9132,8 @@
         <f t="shared" si="25"/>
         <v>j</v>
       </c>
-      <c r="J74">
-        <v>0</v>
+      <c r="J74" t="s">
+        <v>63</v>
       </c>
       <c r="K74" t="s">
         <v>63</v>
@@ -9241,8 +9241,8 @@
         <f t="shared" si="25"/>
         <v>j</v>
       </c>
-      <c r="J75">
-        <v>0</v>
+      <c r="J75" t="s">
+        <v>63</v>
       </c>
       <c r="K75" t="s">
         <v>63</v>
@@ -9350,8 +9350,8 @@
         <f t="shared" si="25"/>
         <v>j</v>
       </c>
-      <c r="J76">
-        <v>0</v>
+      <c r="J76" t="s">
+        <v>63</v>
       </c>
       <c r="K76" t="s">
         <v>63</v>
@@ -9459,8 +9459,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J77">
-        <v>0</v>
+      <c r="J77" t="s">
+        <v>63</v>
       </c>
       <c r="K77" t="s">
         <v>63</v>
@@ -9568,8 +9568,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J78">
-        <v>0</v>
+      <c r="J78" t="s">
+        <v>63</v>
       </c>
       <c r="K78" t="s">
         <v>63</v>
@@ -9677,8 +9677,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J79">
-        <v>0</v>
+      <c r="J79" t="s">
+        <v>63</v>
       </c>
       <c r="K79" t="s">
         <v>63</v>
@@ -9786,8 +9786,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J80">
-        <v>0</v>
+      <c r="J80" t="s">
+        <v>63</v>
       </c>
       <c r="K80" t="s">
         <v>63</v>
@@ -9895,8 +9895,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J81">
-        <v>0</v>
+      <c r="J81" t="s">
+        <v>63</v>
       </c>
       <c r="K81" t="s">
         <v>63</v>
@@ -10004,8 +10004,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J82">
-        <v>0</v>
+      <c r="J82" t="s">
+        <v>63</v>
       </c>
       <c r="K82" t="s">
         <v>63</v>
@@ -10113,8 +10113,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J83">
-        <v>0</v>
+      <c r="J83" t="s">
+        <v>63</v>
       </c>
       <c r="K83" t="s">
         <v>63</v>
@@ -10222,8 +10222,8 @@
         <f t="shared" si="25"/>
         <v>j</v>
       </c>
-      <c r="J84">
-        <v>1</v>
+      <c r="J84" t="s">
+        <v>63</v>
       </c>
       <c r="K84" t="s">
         <v>63</v>
@@ -10331,8 +10331,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J85">
-        <v>1</v>
+      <c r="J85" t="s">
+        <v>63</v>
       </c>
       <c r="K85" t="s">
         <v>63</v>
@@ -10440,8 +10440,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J86">
-        <v>1</v>
+      <c r="J86" t="s">
+        <v>63</v>
       </c>
       <c r="K86" t="s">
         <v>63</v>
@@ -10549,8 +10549,8 @@
         <f t="shared" si="25"/>
         <v>j</v>
       </c>
-      <c r="J87">
-        <v>0</v>
+      <c r="J87" t="s">
+        <v>63</v>
       </c>
       <c r="K87" t="s">
         <v>63</v>
@@ -10658,8 +10658,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J88">
-        <v>0</v>
+      <c r="J88" t="s">
+        <v>63</v>
       </c>
       <c r="K88" t="s">
         <v>63</v>
@@ -10767,8 +10767,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J89">
-        <v>0</v>
+      <c r="J89" t="s">
+        <v>63</v>
       </c>
       <c r="K89" t="s">
         <v>63</v>
@@ -10876,8 +10876,8 @@
         <f t="shared" si="25"/>
         <v>j</v>
       </c>
-      <c r="J90">
-        <v>0</v>
+      <c r="J90" t="s">
+        <v>63</v>
       </c>
       <c r="K90" t="s">
         <v>63</v>
@@ -10985,8 +10985,8 @@
         <f t="shared" si="25"/>
         <v>j</v>
       </c>
-      <c r="J91">
-        <v>1</v>
+      <c r="J91" t="s">
+        <v>63</v>
       </c>
       <c r="K91" t="s">
         <v>63</v>
@@ -11094,8 +11094,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J92">
-        <v>0</v>
+      <c r="J92" t="s">
+        <v>63</v>
       </c>
       <c r="K92" t="s">
         <v>63</v>
@@ -11203,8 +11203,8 @@
         <f t="shared" si="25"/>
         <v>j</v>
       </c>
-      <c r="J93">
-        <v>0</v>
+      <c r="J93" t="s">
+        <v>63</v>
       </c>
       <c r="K93" t="s">
         <v>63</v>
@@ -11312,8 +11312,8 @@
         <f t="shared" si="25"/>
         <v>j</v>
       </c>
-      <c r="J94">
-        <v>0</v>
+      <c r="J94" t="s">
+        <v>63</v>
       </c>
       <c r="K94" t="s">
         <v>63</v>
@@ -11421,8 +11421,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J95">
-        <v>0</v>
+      <c r="J95" t="s">
+        <v>63</v>
       </c>
       <c r="K95" t="s">
         <v>63</v>
@@ -11530,8 +11530,8 @@
         <f t="shared" si="25"/>
         <v>j</v>
       </c>
-      <c r="J96">
-        <v>1</v>
+      <c r="J96" t="s">
+        <v>63</v>
       </c>
       <c r="K96" t="s">
         <v>63</v>
@@ -11639,8 +11639,8 @@
         <f t="shared" si="25"/>
         <v>f</v>
       </c>
-      <c r="J97">
-        <v>0</v>
+      <c r="J97" t="s">
+        <v>63</v>
       </c>
       <c r="K97" t="s">
         <v>63</v>
@@ -11748,8 +11748,8 @@
         <f t="shared" ref="I98:I109" si="36">IF(AND(Y98=1,O98=0),"f",IF(AND(Y98=1,O98=1),"j",IF(AND(Y98=0,O98=0),"j","f")))</f>
         <v>j</v>
       </c>
-      <c r="J98">
-        <v>1</v>
+      <c r="J98" t="s">
+        <v>63</v>
       </c>
       <c r="K98" t="s">
         <v>63</v>
@@ -11783,7 +11783,7 @@
         <v>14</v>
       </c>
       <c r="U98">
-        <f t="shared" ref="U98:U129" si="37">IF(O98=0,S98,T98)</f>
+        <f t="shared" ref="U98:U109" si="37">IF(O98=0,S98,T98)</f>
         <v>14</v>
       </c>
       <c r="V98">
@@ -11857,8 +11857,8 @@
         <f t="shared" si="36"/>
         <v>f</v>
       </c>
-      <c r="J99">
-        <v>0</v>
+      <c r="J99" t="s">
+        <v>63</v>
       </c>
       <c r="K99" t="s">
         <v>63</v>
@@ -11966,8 +11966,8 @@
         <f t="shared" si="36"/>
         <v>j</v>
       </c>
-      <c r="J100">
-        <v>0</v>
+      <c r="J100" t="s">
+        <v>63</v>
       </c>
       <c r="K100" t="s">
         <v>63</v>
@@ -11979,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="N100" t="str">
-        <f t="shared" ref="N100:N131" si="42">IF(AND(M100=1,M98=1),"REP2",IF(AND(M100=1,M97=1),"REP3","."))</f>
+        <f t="shared" ref="N100:N109" si="42">IF(AND(M100=1,M98=1),"REP2",IF(AND(M100=1,M97=1),"REP3","."))</f>
         <v>REP3</v>
       </c>
       <c r="O100">
@@ -12036,7 +12036,7 @@
         <v>49</v>
       </c>
       <c r="AE100" t="str">
-        <f t="shared" ref="AE100:AE131" si="43">IF(Q100=Q98,"REP2",IF(Q100=Q97,"REP3","."))</f>
+        <f t="shared" ref="AE100:AE109" si="43">IF(Q100=Q98,"REP2",IF(Q100=Q97,"REP3","."))</f>
         <v>.</v>
       </c>
       <c r="AF100">
@@ -12075,8 +12075,8 @@
         <f t="shared" si="36"/>
         <v>j</v>
       </c>
-      <c r="J101">
-        <v>0</v>
+      <c r="J101" t="s">
+        <v>63</v>
       </c>
       <c r="K101" t="s">
         <v>63</v>
@@ -12184,8 +12184,8 @@
         <f t="shared" si="36"/>
         <v>j</v>
       </c>
-      <c r="J102">
-        <v>0</v>
+      <c r="J102" t="s">
+        <v>63</v>
       </c>
       <c r="K102" t="s">
         <v>63</v>
@@ -12293,8 +12293,8 @@
         <f t="shared" si="36"/>
         <v>f</v>
       </c>
-      <c r="J103">
-        <v>0</v>
+      <c r="J103" t="s">
+        <v>63</v>
       </c>
       <c r="K103" t="s">
         <v>63</v>
@@ -12402,8 +12402,8 @@
         <f t="shared" si="36"/>
         <v>j</v>
       </c>
-      <c r="J104">
-        <v>0</v>
+      <c r="J104" t="s">
+        <v>63</v>
       </c>
       <c r="K104" t="s">
         <v>63</v>
@@ -12511,8 +12511,8 @@
         <f t="shared" si="36"/>
         <v>j</v>
       </c>
-      <c r="J105">
-        <v>0</v>
+      <c r="J105" t="s">
+        <v>63</v>
       </c>
       <c r="K105" t="s">
         <v>63</v>
@@ -12620,8 +12620,8 @@
         <f t="shared" si="36"/>
         <v>j</v>
       </c>
-      <c r="J106">
-        <v>0</v>
+      <c r="J106" t="s">
+        <v>63</v>
       </c>
       <c r="K106" t="s">
         <v>63</v>
@@ -12729,8 +12729,8 @@
         <f t="shared" si="36"/>
         <v>f</v>
       </c>
-      <c r="J107">
-        <v>0</v>
+      <c r="J107" t="s">
+        <v>63</v>
       </c>
       <c r="K107" t="s">
         <v>63</v>
@@ -12838,8 +12838,8 @@
         <f t="shared" si="36"/>
         <v>j</v>
       </c>
-      <c r="J108">
-        <v>1</v>
+      <c r="J108" t="s">
+        <v>63</v>
       </c>
       <c r="K108" t="s">
         <v>63</v>
@@ -12947,8 +12947,8 @@
         <f t="shared" si="36"/>
         <v>j</v>
       </c>
-      <c r="J109">
-        <v>0</v>
+      <c r="J109" t="s">
+        <v>63</v>
       </c>
       <c r="K109" t="s">
         <v>63</v>
